--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -510,8 +510,12 @@
       <c r="G2" t="n">
         <v>5.077100813344767</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>497.5558797077872</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37.98136486318998</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -539,8 +543,12 @@
       <c r="G3" t="n">
         <v>7.86914079514169</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>503.6250108890682</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.44465731977624</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -568,8 +576,12 @@
       <c r="G4" t="n">
         <v>4.401631814173456</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>26.40979088504074</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.016014571377159</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -597,8 +609,12 @@
       <c r="G5" t="n">
         <v>12.36369583762589</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>197.8191334020142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.10069720626066</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -626,8 +642,12 @@
       <c r="G6" t="n">
         <v>1.491517128410902</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>83.52495919101052</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.375951083283255</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -655,8 +675,12 @@
       <c r="G7" t="n">
         <v>7.409971799880053</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>155.6094077974811</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.87858074789935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -684,8 +708,12 @@
       <c r="G8" t="n">
         <v>9.554975752252494</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>726.1781571711896</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55.43344711230463</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -713,8 +741,12 @@
       <c r="G9" t="n">
         <v>3.507240457928875</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>63.13032824271974</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.819109026161804</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -769,8 +801,12 @@
       <c r="G11" t="n">
         <v>11.94885934804579</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>477.9543739218315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.48506671159026</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -798,8 +834,12 @@
       <c r="G12" t="n">
         <v>10.50487815676017</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>105.0487815676017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.018990959358902</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -827,8 +867,12 @@
       <c r="G13" t="n">
         <v>7.12404447508897</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>691.03231408363</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52.75055832699468</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -856,8 +900,12 @@
       <c r="G14" t="n">
         <v>6.594391056868998</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>448.4185918670919</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.23042686008336</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -885,8 +933,12 @@
       <c r="G15" t="n">
         <v>3.870101736028118</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>259.2968163138839</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.7936501002965</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -914,8 +966,12 @@
       <c r="G16" t="n">
         <v>7.46467790551898</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>739.003112646379</v>
+      </c>
+      <c r="I16" t="n">
+        <v>56.41245134705184</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -970,8 +1026,12 @@
       <c r="G18" t="n">
         <v>16.2037498030804</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>97.22249881848242</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.421564795304022</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -999,8 +1059,12 @@
       <c r="G19" t="n">
         <v>11.19734450764174</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>459.0911248133114</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.04512403155053</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1028,8 +1092,12 @@
       <c r="G20" t="n">
         <v>7.750588494703229</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>558.0423716186325</v>
+      </c>
+      <c r="I20" t="n">
+        <v>42.5986543220331</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1057,8 +1125,12 @@
       <c r="G21" t="n">
         <v>12.97075581175841</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>946.8651742583642</v>
+      </c>
+      <c r="I21" t="n">
+        <v>72.27978429453151</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1086,8 +1158,12 @@
       <c r="G22" t="n">
         <v>9.38581709618126</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>37.54326838472504</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.865898349979012</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1115,8 +1191,12 @@
       <c r="G23" t="n">
         <v>1.94455342600734</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>97.22767130036698</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.421959641249401</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1144,8 +1224,12 @@
       <c r="G24" t="n">
         <v>10.13993478244199</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>162.2389565190718</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.38465316939482</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1173,8 +1257,12 @@
       <c r="G25" t="n">
         <v>8.964092628191842</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>815.7324291654577</v>
+      </c>
+      <c r="I25" t="n">
+        <v>62.26965108133277</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1202,8 +1290,12 @@
       <c r="G26" t="n">
         <v>13.01819300141283</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>351.4912110381463</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.83139015558373</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1231,8 +1323,12 @@
       <c r="G27" t="n">
         <v>5.223978029341867</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>459.7100665820843</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35.09237149481561</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1260,8 +1356,12 @@
       <c r="G28" t="n">
         <v>3.215967963178859</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>160.798398158943</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.27468688236206</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1289,8 +1389,12 @@
       <c r="G29" t="n">
         <v>1.392722180185595</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>125.3449962167036</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.568320321885764</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1318,8 +1422,12 @@
       <c r="G30" t="n">
         <v>11.65615124341122</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1130.646670610889</v>
+      </c>
+      <c r="I30" t="n">
+        <v>86.30890615350313</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1347,8 +1455,12 @@
       <c r="G31" t="n">
         <v>4.289816614398717</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>321.7362460799038</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24.56001878472551</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1376,8 +1488,12 @@
       <c r="G32" t="n">
         <v>12.37155695009951</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>531.9769488542789</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.6089273934565</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1405,8 +1521,12 @@
       <c r="G33" t="n">
         <v>11.54040623826343</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>230.8081247652687</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.61894082177628</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1434,8 +1554,12 @@
       <c r="G34" t="n">
         <v>12.42194786450625</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>981.3338812959934</v>
+      </c>
+      <c r="I34" t="n">
+        <v>74.9109833050378</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1463,8 +1587,12 @@
       <c r="G35" t="n">
         <v>12.99938167071283</v>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>1208.942495376293</v>
+      </c>
+      <c r="I35" t="n">
+        <v>92.28568666994602</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1492,8 +1620,12 @@
       <c r="G36" t="n">
         <v>3.887174879588136</v>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>128.2767710264085</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.792119925680055</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1521,8 +1653,12 @@
       <c r="G37" t="n">
         <v>6.830148477315918</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>314.1868299565322</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.98372747759788</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1550,8 +1686,12 @@
       <c r="G38" t="n">
         <v>2.27974968449884</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>25.07724652948724</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.914293628205137</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1579,8 +1719,12 @@
       <c r="G39" t="n">
         <v>8.548358649688137</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1608,8 +1752,12 @@
       <c r="G40" t="n">
         <v>12.17189765223714</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>219.0941577402685</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.72474486566935</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1637,8 +1785,12 @@
       <c r="G41" t="n">
         <v>12.04000482585766</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>734.4402943773173</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.06414460895553</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1666,8 +1818,12 @@
       <c r="G42" t="n">
         <v>4.995047692017204</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>199.8019076806881</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.25205402142657</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1695,8 +1851,12 @@
       <c r="G43" t="n">
         <v>2.041214586792546</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>146.9674502490633</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.21888933198957</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1724,8 +1884,12 @@
       <c r="G44" t="n">
         <v>2.173340515591302</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>132.5737714510694</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10.12013522527248</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1753,8 +1917,12 @@
       <c r="G45" t="n">
         <v>2.10830060376084</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>147.5810422632588</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.26572841704265</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1782,8 +1950,12 @@
       <c r="G46" t="n">
         <v>12.66142210230503</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>860.9767029567421</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65.72341243944607</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1811,8 +1983,12 @@
       <c r="G47" t="n">
         <v>9.761716967644841</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>234.2812072234762</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.88406162011267</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1840,8 +2016,12 @@
       <c r="G48" t="n">
         <v>7.905031381542018</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>758.8830126280337</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57.93000096397213</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1869,8 +2049,12 @@
       <c r="G49" t="n">
         <v>7.457580261774823</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>462.369976230039</v>
+      </c>
+      <c r="I49" t="n">
+        <v>35.29541803282746</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1898,8 +2082,12 @@
       <c r="G50" t="n">
         <v>5.324189046669996</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>212.9675618667999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.2570657913588</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1927,8 +2115,12 @@
       <c r="G51" t="n">
         <v>3.738284821573224</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>130.8399687550628</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.987783874432267</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1956,8 +2148,12 @@
       <c r="G52" t="n">
         <v>3.94983654157907</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>363.3849618252745</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.73931006299813</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1985,8 +2181,12 @@
       <c r="G53" t="n">
         <v>9.572631348698861</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>583.9305122706305</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.57484826493373</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2014,8 +2214,12 @@
       <c r="G54" t="n">
         <v>3.950632269378849</v>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>118.5189680813655</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.047249471859971</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2043,8 +2247,12 @@
       <c r="G55" t="n">
         <v>1.445695041988795</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>127.221163695014</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.711539213359856</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2072,8 +2280,12 @@
       <c r="G56" t="n">
         <v>9.743412989592322</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>643.0652573130933</v>
+      </c>
+      <c r="I56" t="n">
+        <v>49.0889509399309</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2101,8 +2313,12 @@
       <c r="G57" t="n">
         <v>3.874637592284376</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>185.98260442965</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.19714537630915</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2130,8 +2346,12 @@
       <c r="G58" t="n">
         <v>3.912569232029321</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>387.3443539709028</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29.56827129548878</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2159,8 +2379,12 @@
       <c r="G59" t="n">
         <v>8.876437860662755</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>363.9339522871729</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27.78121773184529</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2188,8 +2412,12 @@
       <c r="G60" t="n">
         <v>4.878678155589868</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>29.27206893353921</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.234509078896128</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2217,8 +2445,12 @@
       <c r="G61" t="n">
         <v>9.352786385961583</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>879.1619202803888</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67.11159696796869</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2273,8 +2505,12 @@
       <c r="G63" t="n">
         <v>1.482202269248695</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>71.14570892393735</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.430970146865448</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2302,8 +2538,12 @@
       <c r="G64" t="n">
         <v>7.659658527336536</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>367.6636093121537</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28.06592437497358</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2331,8 +2571,12 @@
       <c r="G65" t="n">
         <v>9.774169239079429</v>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>410.515108041336</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31.33703114819366</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2360,8 +2604,12 @@
       <c r="G66" t="n">
         <v>4.458040715567184</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>62.41257001794057</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.764318321980198</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2389,8 +2637,12 @@
       <c r="G67" t="n">
         <v>3.132552229835065</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>162.8927159514234</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12.43455846957431</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2418,8 +2670,12 @@
       <c r="G68" t="n">
         <v>2.630371217921287</v>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>263.0371217921287</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20.07916960245257</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2447,8 +2703,12 @@
       <c r="G69" t="n">
         <v>11.80945434127707</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>1074.660345056213</v>
+      </c>
+      <c r="I69" t="n">
+        <v>82.0351408439858</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2476,8 +2736,12 @@
       <c r="G70" t="n">
         <v>5.910261751655494</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>313.2438728377412</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.91174601814822</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2505,8 +2769,12 @@
       <c r="G71" t="n">
         <v>8.236280456883929</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>436.5228642148482</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33.322356046935</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2534,8 +2802,12 @@
       <c r="G72" t="n">
         <v>1.592772586651866</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>49.37595018620784</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.769156502763963</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2563,8 +2835,12 @@
       <c r="G73" t="n">
         <v>4.473467846421695</v>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>326.5631527887837</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24.9284849457087</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2592,8 +2868,12 @@
       <c r="G74" t="n">
         <v>0.9878599793179209</v>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>81.00451830406952</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.183551015577834</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2621,8 +2901,12 @@
       <c r="G75" t="n">
         <v>8.296093012623039</v>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>696.8718130603353</v>
+      </c>
+      <c r="I75" t="n">
+        <v>53.19632160765934</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2650,8 +2934,12 @@
       <c r="G76" t="n">
         <v>12.95733598874516</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9891096174614642</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2679,8 +2967,12 @@
       <c r="G77" t="n">
         <v>12.74332324272046</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>1159.642415087562</v>
+      </c>
+      <c r="I77" t="n">
+        <v>88.52232176240932</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2708,8 +3000,12 @@
       <c r="G78" t="n">
         <v>1.84343438268969</v>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>71.8939409248979</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.488087093503665</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2737,8 +3033,12 @@
       <c r="G79" t="n">
         <v>11.8597091878698</v>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>225.3344745695263</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17.20110492897149</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2766,8 +3066,12 @@
       <c r="G80" t="n">
         <v>3.708349246686405</v>
       </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>270.7094950081075</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.66484694718378</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2795,8 +3099,12 @@
       <c r="G81" t="n">
         <v>7.614018409821722</v>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>30.45607363928689</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.324891117502816</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2824,8 +3132,12 @@
       <c r="G82" t="n">
         <v>3.92717939080166</v>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>239.5579428389013</v>
+      </c>
+      <c r="I82" t="n">
+        <v>18.28686586556498</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2853,8 +3165,12 @@
       <c r="G83" t="n">
         <v>11.93365970713595</v>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>107.4029373642235</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8.198697508719363</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2882,8 +3198,12 @@
       <c r="G84" t="n">
         <v>9.165781722555719</v>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>412.4601775150074</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31.4855097339701</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2911,8 +3231,12 @@
       <c r="G85" t="n">
         <v>6.092312845019163</v>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>261.969452335824</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19.99766811723845</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2940,8 +3264,12 @@
       <c r="G86" t="n">
         <v>4.254909532473636</v>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>34.03927625978909</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.598418035098401</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2969,8 +3297,12 @@
       <c r="G87" t="n">
         <v>2.20500615548134</v>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>112.4553139295483</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8.584375109125844</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2998,8 +3330,12 @@
       <c r="G88" t="n">
         <v>4.066683788768725</v>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>69.13362440906833</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.277375909089194</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3027,8 +3363,12 @@
       <c r="G89" t="n">
         <v>9.919683321127081</v>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>188.4739831014145</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14.3873269543065</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3056,8 +3396,12 @@
       <c r="G90" t="n">
         <v>10.9799663091992</v>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>175.6794609471872</v>
+      </c>
+      <c r="I90" t="n">
+        <v>13.4106458738311</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3085,8 +3429,12 @@
       <c r="G91" t="n">
         <v>7.841137565543811</v>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>15.68227513108762</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.197120239014323</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3114,8 +3462,12 @@
       <c r="G92" t="n">
         <v>2.175715672841723</v>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>15.23000970989206</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.162596161060465</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3143,8 +3495,12 @@
       <c r="G93" t="n">
         <v>2.915346228467483</v>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>17.4920773708049</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.33527308174083</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3172,8 +3528,12 @@
       <c r="G94" t="n">
         <v>6.864393076024118</v>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>41.18635845614471</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.143996828713341</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3228,8 +3588,12 @@
       <c r="G96" t="n">
         <v>5.030255129909466</v>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>130.7866333776461</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.983712471576041</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3257,8 +3621,12 @@
       <c r="G97" t="n">
         <v>6.505127514357849</v>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3286,8 +3654,12 @@
       <c r="G98" t="n">
         <v>9.034020771013177</v>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>713.687640910041</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54.47997258855276</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3664,4 +3665,3262 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr.p.k.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Autors</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nosaukums</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Datums</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Skaits</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pašizmaksa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Kopā</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Peļņa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pride and Prejudice </t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44086</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.8756494758357</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.077100813344767</v>
+      </c>
+      <c r="H2" t="n">
+        <v>497.5558797077872</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37.98136486318998</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mary Wollstonecraft Shelley</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frankenstein; Or, The Modern Prometheus </t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.00697770621503</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.86914079514169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>503.6250108890682</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.44465731977624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Christmas Carol in Prose; Being a Ghost Story of Christmas </t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.360024285628592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.401631814173456</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.40979088504074</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.016014571377159</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lewis Carroll</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice's Adventures in Wonderland </t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.437935753912893</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.36369583762589</v>
+      </c>
+      <c r="H5" t="n">
+        <v>197.8191334020142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.10069720626066</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathaniel Hawthorne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Scarlet Letter </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.138562693443437</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.491517128410902</v>
+      </c>
+      <c r="H6" t="n">
+        <v>83.52495919101052</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.375951083283255</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henrik Ibsen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Et dukkehjem. English </t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.6564670228092</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.409971799880053</v>
+      </c>
+      <c r="H7" t="n">
+        <v>155.6094077974811</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.87858074789935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charlotte Perkins Gilman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Yellow Wallpaper </t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.293874620040071</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.554975752252494</v>
+      </c>
+      <c r="H8" t="n">
+        <v>726.1781571711896</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55.43344711230463</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Herman Melville</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moby Dick; Or, The Whale </t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44127</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.677282792312118</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.507240457928875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>63.13032824271974</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.819109026161804</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Franz Kafka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metamorphosis </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>7.0891586183045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.286797789978896</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Tale of Two Cities </t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.121266677897546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.94885934804579</v>
+      </c>
+      <c r="H11" t="n">
+        <v>477.9543739218315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.48506671159026</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Adventures of Sherlock Holmes </t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44122</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.018990959358909</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.50487815676017</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105.0487815676017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.018990959358902</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jonathan Swift</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Modest Proposal </t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44094</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.438201889380893</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.12404447508897</v>
+      </c>
+      <c r="H13" t="n">
+        <v>691.03231408363</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52.75055832699468</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Niccolò Machiavelli</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il Principe. English </t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>68</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.033886302953434</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.594391056868998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>448.4185918670919</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.23042686008336</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Robert Louis Stevenson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Strange Case of Dr. Jekyll and Mr. Hyde </t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.954276134372609</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.870101736028118</v>
+      </c>
+      <c r="H15" t="n">
+        <v>259.2968163138839</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.7936501002965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Importance of Being Earnest: A Trivial Comedy for Serious People </t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.698227408793114</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.46467790551898</v>
+      </c>
+      <c r="H16" t="n">
+        <v>739.003112646379</v>
+      </c>
+      <c r="I16" t="n">
+        <v>56.41245134705184</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Henry David Thoreau</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walden, and On The Duty Of Civil Disobedience </t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44129</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>8.291035613451101</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.86125665362094</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bram Stoker</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dracula </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.36927465884</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.2037498030804</v>
+      </c>
+      <c r="H18" t="n">
+        <v>97.22249881848242</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.421564795304022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Frank Belknap Long</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Time Trap </t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44116</v>
+      </c>
+      <c r="E19" t="n">
+        <v>41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.547591227207436</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.19734450764174</v>
+      </c>
+      <c r="H19" t="n">
+        <v>459.0911248133114</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.04512403155053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Michel de Montaigne</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Essays of Michel de Montaigne — Complete </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44108</v>
+      </c>
+      <c r="E20" t="n">
+        <v>72</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.916479766949029</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.750588494703229</v>
+      </c>
+      <c r="H20" t="n">
+        <v>558.0423716186325</v>
+      </c>
+      <c r="I20" t="n">
+        <v>42.5986543220331</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mark Twain</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adventures of Huckleberry Finn </t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E21" t="n">
+        <v>73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.9013403143194</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.97075581175841</v>
+      </c>
+      <c r="H21" t="n">
+        <v>946.8651742583642</v>
+      </c>
+      <c r="I21" t="n">
+        <v>72.27978429453151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Picture of Dorian Gray </t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44086</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.164745874947526</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.38581709618126</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37.54326838472504</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.865898349979012</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Frederick Douglass</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Narrative of the Life of Frederick Douglass, an American Slave </t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.484391928249877</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.94455342600734</v>
+      </c>
+      <c r="H23" t="n">
+        <v>97.22767130036698</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.421959641249401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John Camden Hotten</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Slang Dictionary: Etymological, Historical and Andecdotal </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.740408230871748</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.13993478244199</v>
+      </c>
+      <c r="H24" t="n">
+        <v>162.2389565190718</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.38465316939482</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mark Twain</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Adventures of Tom Sawyer </t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="E25" t="n">
+        <v>91</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.842818800146445</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.964092628191842</v>
+      </c>
+      <c r="H25" t="n">
+        <v>815.7324291654577</v>
+      </c>
+      <c r="I25" t="n">
+        <v>62.26965108133277</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Charlotte Brontë</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane Eyre: An Autobiography </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.93755190947544</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13.01819300141283</v>
+      </c>
+      <c r="H26" t="n">
+        <v>351.4912110381463</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.83139015558373</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kate Chopin</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Awakening, and Selected Short Stories </t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44082</v>
+      </c>
+      <c r="E27" t="n">
+        <v>88</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.987769488047227</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.223978029341867</v>
+      </c>
+      <c r="H27" t="n">
+        <v>459.7100665820843</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35.09237149481561</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Happy Prince, and Other Tales </t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.454937376472412</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.215967963178859</v>
+      </c>
+      <c r="H28" t="n">
+        <v>160.798398158943</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.27468688236206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>graf Leo Tolstoy</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">War and Peace </t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44124</v>
+      </c>
+      <c r="E29" t="n">
+        <v>90</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.063146702431752</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.392722180185595</v>
+      </c>
+      <c r="H29" t="n">
+        <v>125.3449962167036</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.568320321885764</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ayn Rand</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthem </t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44078</v>
+      </c>
+      <c r="E30" t="n">
+        <v>97</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.897825376649788</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.65615124341122</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1130.646670610889</v>
+      </c>
+      <c r="I30" t="n">
+        <v>86.30890615350313</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jacob Grimm and Wilhelm Grimm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grimms' Fairy Tales </t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44091</v>
+      </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.27466917129673</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.289816614398717</v>
+      </c>
+      <c r="H31" t="n">
+        <v>321.7362460799038</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24.56001878472551</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great Expectations </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="E32" t="n">
+        <v>43</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.443936603129396</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.37155695009951</v>
+      </c>
+      <c r="H32" t="n">
+        <v>531.9769488542789</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.6089273934565</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>J. M. Barrie</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Pan </t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.809470410888117</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.54040623826343</v>
+      </c>
+      <c r="H33" t="n">
+        <v>230.8081247652687</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.61894082177628</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Homer</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Iliad </t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.482402950004767</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.42194786450625</v>
+      </c>
+      <c r="H34" t="n">
+        <v>981.3338812959934</v>
+      </c>
+      <c r="I34" t="n">
+        <v>74.9109833050378</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>W. E. B. Du Bois</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Souls of Black Folk </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E35" t="n">
+        <v>93</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.923192115047963</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12.99938167071283</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1208.942495376293</v>
+      </c>
+      <c r="I35" t="n">
+        <v>92.28568666994602</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Louisa May Alcott</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Little Women </t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E36" t="n">
+        <v>33</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.96730906838789</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.887174879588136</v>
+      </c>
+      <c r="H36" t="n">
+        <v>128.2767710264085</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.792119925680055</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Plato</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Republic </t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E37" t="n">
+        <v>46</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.2138537994778</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.830148477315918</v>
+      </c>
+      <c r="H37" t="n">
+        <v>314.1868299565322</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.98372747759788</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Robert Louis Stevenson</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Treasure Island </t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.740266934731939</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.27974968449884</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25.07724652948724</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.914293628205137</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma </t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44089</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.525464618082547</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.548358649688137</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>James Joyce</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dubliners </t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.29152492537186</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.17189765223714</v>
+      </c>
+      <c r="H40" t="n">
+        <v>219.0941577402685</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.72474486566935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>James Joyce</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulysses </t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.190843378517298</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12.04000482585766</v>
+      </c>
+      <c r="H41" t="n">
+        <v>734.4402943773173</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.06414460895553</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Hound of the Baskervilles </t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44076</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.813013505356644</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.995047692017204</v>
+      </c>
+      <c r="H42" t="n">
+        <v>199.8019076806881</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.25205402142657</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Harriet Beecher Stowe</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uncle Tom's Cabin </t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="E43" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.55817907388744</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.041214586792546</v>
+      </c>
+      <c r="H43" t="n">
+        <v>146.9674502490633</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.21888933198957</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kahlil Gibran</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Prophet </t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44097</v>
+      </c>
+      <c r="E44" t="n">
+        <v>61</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.659038561520078</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.173340515591302</v>
+      </c>
+      <c r="H44" t="n">
+        <v>132.5737714510694</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10.12013522527248</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thomas Hobbes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leviathan </t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E45" t="n">
+        <v>70</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.609389773863237</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.10830060376084</v>
+      </c>
+      <c r="H45" t="n">
+        <v>147.5810422632588</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.26572841704265</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Joseph Conrad</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heart of Darkness </t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="E46" t="n">
+        <v>68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.665207711683228</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12.66142210230503</v>
+      </c>
+      <c r="H46" t="n">
+        <v>860.9767029567421</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65.72341243944607</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alexandre Dumas</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Count of Monte Cristo, Illustrated </t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.451692341713619</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.761716967644841</v>
+      </c>
+      <c r="H47" t="n">
+        <v>234.2812072234762</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.88406162011267</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Andrée Hope</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chronicles of an Old Inn </t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44085</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6.034375100413754</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.905031381542018</v>
+      </c>
+      <c r="H48" t="n">
+        <v>758.8830126280337</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57.93000096397213</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pennsylvania Dutch Cooking </t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E49" t="n">
+        <v>62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.692809360133452</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.457580261774823</v>
+      </c>
+      <c r="H49" t="n">
+        <v>462.369976230039</v>
+      </c>
+      <c r="I49" t="n">
+        <v>35.29541803282746</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>L. M. Montgomery</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne of Green Gables </t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="E50" t="n">
+        <v>40</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.064266447839691</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.324189046669996</v>
+      </c>
+      <c r="H50" t="n">
+        <v>212.9675618667999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.2570657913588</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D. W. Barefoot</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morley's Weapon </t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44079</v>
+      </c>
+      <c r="E51" t="n">
+        <v>35</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.853652535552079</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.738284821573224</v>
+      </c>
+      <c r="H51" t="n">
+        <v>130.8399687550628</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.987783874432267</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Antonio Pigafetta</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Philippine Islands, 1493-1898, Volume 33, 1519-1522 </t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44125</v>
+      </c>
+      <c r="E52" t="n">
+        <v>92</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.015142398151962</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.94983654157907</v>
+      </c>
+      <c r="H52" t="n">
+        <v>363.3849618252745</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.73931006299813</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>David P. Barrows</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A History of the Philippines </t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44092</v>
+      </c>
+      <c r="E53" t="n">
+        <v>61</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.307352174579282</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.572631348698861</v>
+      </c>
+      <c r="H53" t="n">
+        <v>583.9305122706305</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.57484826493373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>John U. Wolff</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Dictionary of Cebuano Visayan </t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.01574982395332</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.950632269378849</v>
+      </c>
+      <c r="H54" t="n">
+        <v>118.5189680813655</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.047249471859971</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>C. J. Wedlake</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peril Orbit </t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44092</v>
+      </c>
+      <c r="E55" t="n">
+        <v>88</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.103584001518164</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.445695041988795</v>
+      </c>
+      <c r="H55" t="n">
+        <v>127.221163695014</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.711539213359856</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>L. Frank Baum</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Wonderful Wizard of Oz </t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44102</v>
+      </c>
+      <c r="E56" t="n">
+        <v>66</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7.437719839383452</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.743412989592322</v>
+      </c>
+      <c r="H56" t="n">
+        <v>643.0652573130933</v>
+      </c>
+      <c r="I56" t="n">
+        <v>49.0889509399309</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>William Cathrall</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The History of Oswestry </t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44129</v>
+      </c>
+      <c r="E57" t="n">
+        <v>48</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.957738620064409</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.874637592284376</v>
+      </c>
+      <c r="H57" t="n">
+        <v>185.98260442965</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.19714537630915</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Misérables </t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44125</v>
+      </c>
+      <c r="E58" t="n">
+        <v>99</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.98669407025139</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.912569232029321</v>
+      </c>
+      <c r="H58" t="n">
+        <v>387.3443539709028</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29.56827129548878</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ray Bradbury</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asleep in Armageddon </t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E59" t="n">
+        <v>41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.775906763864698</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.876437860662755</v>
+      </c>
+      <c r="H59" t="n">
+        <v>363.9339522871729</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27.78121773184529</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevsky</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Brothers Karamazov </t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.724181798160204</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.878678155589868</v>
+      </c>
+      <c r="H60" t="n">
+        <v>29.27206893353921</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.234509078896128</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>J. H. Oswald Brown</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spectropia; or, Surprising Spectral Illusions </t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E61" t="n">
+        <v>94</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.139531592337086</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.352786385961583</v>
+      </c>
+      <c r="H61" t="n">
+        <v>879.1619202803888</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67.11159696796869</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Stanley</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surveying and Levelling Instruments, Theoretically and Practically Described. </t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>9.776137817538096</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.80674054097491</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Emily Brontë</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wuthering Heights </t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="E63" t="n">
+        <v>48</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.131452113930301</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.482202269248695</v>
+      </c>
+      <c r="H63" t="n">
+        <v>71.14570892393735</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.430970146865448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Henry James</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Turn of the Screw </t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="E64" t="n">
+        <v>48</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.847067578119493</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.659658527336536</v>
+      </c>
+      <c r="H64" t="n">
+        <v>367.6636093121537</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28.06592437497358</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Alfred Coppel</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jinx Ship to the Rescue </t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44077</v>
+      </c>
+      <c r="E65" t="n">
+        <v>42</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.461197892427045</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.774169239079429</v>
+      </c>
+      <c r="H65" t="n">
+        <v>410.515108041336</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31.33703114819366</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Margaret St. Clair</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garden of Evil </t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.40308451570014</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.458040715567184</v>
+      </c>
+      <c r="H66" t="n">
+        <v>62.41257001794057</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.764318321980198</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ludwig Wittgenstein</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tractatus Logico-Philosophicus </t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E67" t="n">
+        <v>52</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.391261244148905</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.132552229835065</v>
+      </c>
+      <c r="H67" t="n">
+        <v>162.8927159514234</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12.43455846957431</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevsky</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prestuplenie i nakazanie. English </t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.007916960245257</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.630371217921287</v>
+      </c>
+      <c r="H68" t="n">
+        <v>263.0371217921287</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20.07916960245257</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Washington Irving</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Legend of Sleepy Hollow </t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44077</v>
+      </c>
+      <c r="E69" t="n">
+        <v>91</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.014850642196237</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11.80945434127707</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1074.660345056213</v>
+      </c>
+      <c r="I69" t="n">
+        <v>82.0351408439858</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Copperfield </t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="E70" t="n">
+        <v>53</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.51165019210343</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.910261751655494</v>
+      </c>
+      <c r="H70" t="n">
+        <v>313.2438728377412</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.91174601814822</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>H. G. Wells</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The War of the Worlds </t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="E71" t="n">
+        <v>53</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6.287236989987731</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.236280456883929</v>
+      </c>
+      <c r="H71" t="n">
+        <v>436.5228642148482</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33.322356046935</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>William Beattie</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The castles and abbeys of England; Vol. 2 of 2 </t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E72" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.21585693637547</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.592772586651866</v>
+      </c>
+      <c r="H72" t="n">
+        <v>49.37595018620784</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.769156502763963</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Jack London</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Call of the Wild </t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="E73" t="n">
+        <v>73</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.414860951466943</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.473467846421695</v>
+      </c>
+      <c r="H73" t="n">
+        <v>326.5631527887837</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24.9284849457087</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Miguel de Cervantes Saavedra</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don Quixote </t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44086</v>
+      </c>
+      <c r="E74" t="n">
+        <v>82</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7540915872655884</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9878599793179209</v>
+      </c>
+      <c r="H74" t="n">
+        <v>81.00451830406952</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.183551015577834</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bernard Shaw</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pygmalion </t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E75" t="n">
+        <v>84</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.332895429483235</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8.296093012623039</v>
+      </c>
+      <c r="H75" t="n">
+        <v>696.8718130603353</v>
+      </c>
+      <c r="I75" t="n">
+        <v>53.19632160765934</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>John Aubrey</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Natural History of Wiltshire </t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.891096174614626</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9891096174614642</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>W.V. Athanas</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Madcap Metalloids </t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E77" t="n">
+        <v>91</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9.727727666198824</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12.74332324272046</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1159.642415087562</v>
+      </c>
+      <c r="I77" t="n">
+        <v>88.52232176240932</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hermann Hesse</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siddhartha </t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E78" t="n">
+        <v>39</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.407201818847091</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.84343438268969</v>
+      </c>
+      <c r="H78" t="n">
+        <v>71.8939409248979</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.488087093503665</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Friedrich Wilhelm Nietzsche</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beyond Good and Evil </t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="E79" t="n">
+        <v>19</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.0532131205113</v>
+      </c>
+      <c r="G79" t="n">
+        <v>11.8597091878698</v>
+      </c>
+      <c r="H79" t="n">
+        <v>225.3344745695263</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17.20110492897149</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Study in Scarlet </t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E80" t="n">
+        <v>73</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.830800951669011</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.708349246686405</v>
+      </c>
+      <c r="H80" t="n">
+        <v>270.7094950081075</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.66484694718378</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Edgar Allan Poe</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Masque of the Red Death </t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.81222779375704</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.614018409821722</v>
+      </c>
+      <c r="H81" t="n">
+        <v>30.45607363928689</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.324891117502816</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Voltaire</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candide </t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>44108</v>
+      </c>
+      <c r="E82" t="n">
+        <v>61</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.997846863207374</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.92717939080166</v>
+      </c>
+      <c r="H82" t="n">
+        <v>239.5579428389013</v>
+      </c>
+      <c r="I82" t="n">
+        <v>18.28686586556498</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Daniel Defoe</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Journal of the Plague Year </t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9.109663898577061</v>
+      </c>
+      <c r="G83" t="n">
+        <v>11.93365970713595</v>
+      </c>
+      <c r="H83" t="n">
+        <v>107.4029373642235</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8.198697508719363</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Upton Sinclair</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jungle </t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E84" t="n">
+        <v>45</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6.996779940882228</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9.165781722555719</v>
+      </c>
+      <c r="H84" t="n">
+        <v>412.4601775150074</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31.4855097339701</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Frances Hodgson Burnett</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Secret Garden </t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="E85" t="n">
+        <v>43</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.65062049238104</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6.092312845019163</v>
+      </c>
+      <c r="H85" t="n">
+        <v>261.969452335824</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19.99766811723845</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>William J. Brittain</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Burnt Planet </t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>44084</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.248022543873005</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.254909532473636</v>
+      </c>
+      <c r="H86" t="n">
+        <v>34.03927625978909</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.598418035098401</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rudyard Kipling</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jungle Book </t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>44093</v>
+      </c>
+      <c r="E87" t="n">
+        <v>51</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.683210805710946</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.20500615548134</v>
+      </c>
+      <c r="H87" t="n">
+        <v>112.4553139295483</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8.584375109125844</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Homer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Odyssey </t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.104338770052462</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.066683788768725</v>
+      </c>
+      <c r="H88" t="n">
+        <v>69.13362440906833</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.277375909089194</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>graf Leo Tolstoy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna Karenina </t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="E89" t="n">
+        <v>19</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7.572277344371817</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.919683321127081</v>
+      </c>
+      <c r="H89" t="n">
+        <v>188.4739831014145</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14.3873269543065</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Dante Alighieri</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divine Comedy, Longfellow's Translation, Hell </t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44127</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.381653671144427</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10.9799663091992</v>
+      </c>
+      <c r="H90" t="n">
+        <v>175.6794609471872</v>
+      </c>
+      <c r="I90" t="n">
+        <v>13.4106458738311</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Jonathan Swift</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gulliver's Travels into Several Remote Nations of the World </t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.985601195071611</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.841137565543811</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15.68227513108762</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.197120239014323</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oliver Twist </t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.660851658657804</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.175715672841723</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15.23000970989206</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.162596161060465</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Martin A. S. Hume</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queens of old Spain </t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.22545513623472</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.915346228467483</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17.4920773708049</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.33527308174083</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Daniel Defoe</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Life and Adventures of Robinson Crusoe </t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5.239994714522227</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.864393076024118</v>
+      </c>
+      <c r="H94" t="n">
+        <v>41.18635845614471</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.143996828713341</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graham's Magazine, Vol. XVIII, No. 6, June 1841 </t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>2.021288383814327</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.647887782796769</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Herself by Harriet A. Jacobs</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incidents in the Life of a Slave Girl, Written </t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44130</v>
+      </c>
+      <c r="E96" t="n">
+        <v>26</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.83988941214463</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.030255129909466</v>
+      </c>
+      <c r="H96" t="n">
+        <v>130.7866333776461</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.983712471576041</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Equiano</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Interesting Narrative of the Life of Olaudah Equiano, Or Gustavus Vassa, The African </t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44091</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4.965746194166297</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6.505127514357849</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Jerome K. Jerome</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Three Men in a Boat (To Say Nothing of the Dog) </t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44091</v>
+      </c>
+      <c r="E98" t="n">
+        <v>79</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6.89619906184212</v>
+      </c>
+      <c r="G98" t="n">
+        <v>9.034020771013177</v>
+      </c>
+      <c r="H98" t="n">
+        <v>713.687640910041</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54.47997258855276</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4506</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>689.0331810796539</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -6913,12 +6913,18 @@
       <c r="E99" t="n">
         <v>4506</v>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>525.9795275417206</v>
+      </c>
       <c r="G99" t="n">
         <v>689.0331810796539</v>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>30663.63310492675</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2340.735351521128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,9 +509,15 @@
       <c r="F2" t="n">
         <v>3.8756494758357</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>5.077100813344767</v>
+      </c>
+      <c r="H2" t="n">
+        <v>497.5558797077872</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37.98136486318998</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -534,9 +542,15 @@
       <c r="F3" t="n">
         <v>6.00697770621503</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>7.86914079514169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>503.6250108890682</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.44465731977624</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -561,9 +575,15 @@
       <c r="F4" t="n">
         <v>3.360024285628592</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>4.401631814173456</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.40979088504074</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.016014571377159</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -588,9 +608,15 @@
       <c r="F5" t="n">
         <v>9.437935753912893</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>12.36369583762589</v>
+      </c>
+      <c r="H5" t="n">
+        <v>197.8191334020142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.10069720626066</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -615,9 +641,15 @@
       <c r="F6" t="n">
         <v>1.138562693443437</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.491517128410902</v>
+      </c>
+      <c r="H6" t="n">
+        <v>83.52495919101052</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.375951083283255</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -642,9 +674,15 @@
       <c r="F7" t="n">
         <v>5.6564670228092</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>7.409971799880053</v>
+      </c>
+      <c r="H7" t="n">
+        <v>155.6094077974811</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.87858074789935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -669,9 +707,15 @@
       <c r="F8" t="n">
         <v>7.293874620040071</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>9.554975752252494</v>
+      </c>
+      <c r="H8" t="n">
+        <v>726.1781571711896</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55.43344711230463</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -696,9 +740,15 @@
       <c r="F9" t="n">
         <v>2.677282792312118</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>3.507240457928875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>63.13032824271974</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.819109026161804</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -721,7 +771,9 @@
       <c r="F10" t="n">
         <v>7.0891586183045</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>9.286797789978896</v>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -748,9 +800,15 @@
       <c r="F11" t="n">
         <v>9.121266677897546</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>11.94885934804579</v>
+      </c>
+      <c r="H11" t="n">
+        <v>477.9543739218315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.48506671159026</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -775,9 +833,15 @@
       <c r="F12" t="n">
         <v>8.018990959358909</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>10.50487815676017</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105.0487815676017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.018990959358902</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -802,9 +866,15 @@
       <c r="F13" t="n">
         <v>5.438201889380893</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>7.12404447508897</v>
+      </c>
+      <c r="H13" t="n">
+        <v>691.03231408363</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52.75055832699468</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -829,9 +899,15 @@
       <c r="F14" t="n">
         <v>5.033886302953434</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>6.594391056868998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>448.4185918670919</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.23042686008336</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -856,9 +932,15 @@
       <c r="F15" t="n">
         <v>2.954276134372609</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>3.870101736028118</v>
+      </c>
+      <c r="H15" t="n">
+        <v>259.2968163138839</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.7936501002965</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -883,9 +965,15 @@
       <c r="F16" t="n">
         <v>5.698227408793114</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>7.46467790551898</v>
+      </c>
+      <c r="H16" t="n">
+        <v>739.003112646379</v>
+      </c>
+      <c r="I16" t="n">
+        <v>56.41245134705184</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -908,7 +996,9 @@
       <c r="F17" t="n">
         <v>8.291035613451101</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>10.86125665362094</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -935,9 +1025,15 @@
       <c r="F18" t="n">
         <v>12.36927465884</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>16.2037498030804</v>
+      </c>
+      <c r="H18" t="n">
+        <v>97.22249881848242</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.421564795304022</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -962,9 +1058,15 @@
       <c r="F19" t="n">
         <v>8.547591227207436</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>11.19734450764174</v>
+      </c>
+      <c r="H19" t="n">
+        <v>459.0911248133114</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.04512403155053</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -989,9 +1091,15 @@
       <c r="F20" t="n">
         <v>5.916479766949029</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>7.750588494703229</v>
+      </c>
+      <c r="H20" t="n">
+        <v>558.0423716186325</v>
+      </c>
+      <c r="I20" t="n">
+        <v>42.5986543220331</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1016,9 +1124,15 @@
       <c r="F21" t="n">
         <v>9.9013403143194</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>12.97075581175841</v>
+      </c>
+      <c r="H21" t="n">
+        <v>946.8651742583642</v>
+      </c>
+      <c r="I21" t="n">
+        <v>72.27978429453151</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1043,9 +1157,15 @@
       <c r="F22" t="n">
         <v>7.164745874947526</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>9.38581709618126</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37.54326838472504</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.865898349979012</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1070,9 +1190,15 @@
       <c r="F23" t="n">
         <v>1.484391928249877</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1.94455342600734</v>
+      </c>
+      <c r="H23" t="n">
+        <v>97.22767130036698</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.421959641249401</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1097,9 +1223,15 @@
       <c r="F24" t="n">
         <v>7.740408230871748</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>10.13993478244199</v>
+      </c>
+      <c r="H24" t="n">
+        <v>162.2389565190718</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.38465316939482</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1124,9 +1256,15 @@
       <c r="F25" t="n">
         <v>6.842818800146445</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>8.964092628191842</v>
+      </c>
+      <c r="H25" t="n">
+        <v>815.7324291654577</v>
+      </c>
+      <c r="I25" t="n">
+        <v>62.26965108133277</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1151,9 +1289,15 @@
       <c r="F26" t="n">
         <v>9.93755190947544</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>13.01819300141283</v>
+      </c>
+      <c r="H26" t="n">
+        <v>351.4912110381463</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.83139015558373</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1178,9 +1322,15 @@
       <c r="F27" t="n">
         <v>3.987769488047227</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>5.223978029341867</v>
+      </c>
+      <c r="H27" t="n">
+        <v>459.7100665820843</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35.09237149481561</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1205,9 +1355,15 @@
       <c r="F28" t="n">
         <v>2.454937376472412</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>3.215967963178859</v>
+      </c>
+      <c r="H28" t="n">
+        <v>160.798398158943</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.27468688236206</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1232,9 +1388,15 @@
       <c r="F29" t="n">
         <v>1.063146702431752</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1.392722180185595</v>
+      </c>
+      <c r="H29" t="n">
+        <v>125.3449962167036</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.568320321885764</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1259,9 +1421,15 @@
       <c r="F30" t="n">
         <v>8.897825376649788</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>11.65615124341122</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1130.646670610889</v>
+      </c>
+      <c r="I30" t="n">
+        <v>86.30890615350313</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1286,9 +1454,15 @@
       <c r="F31" t="n">
         <v>3.27466917129673</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>4.289816614398717</v>
+      </c>
+      <c r="H31" t="n">
+        <v>321.7362460799038</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24.56001878472551</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1313,9 +1487,15 @@
       <c r="F32" t="n">
         <v>9.443936603129396</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>12.37155695009951</v>
+      </c>
+      <c r="H32" t="n">
+        <v>531.9769488542789</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.6089273934565</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1340,9 +1520,15 @@
       <c r="F33" t="n">
         <v>8.809470410888117</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>11.54040623826343</v>
+      </c>
+      <c r="H33" t="n">
+        <v>230.8081247652687</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.61894082177628</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1367,9 +1553,15 @@
       <c r="F34" t="n">
         <v>9.482402950004767</v>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>12.42194786450625</v>
+      </c>
+      <c r="H34" t="n">
+        <v>981.3338812959934</v>
+      </c>
+      <c r="I34" t="n">
+        <v>74.9109833050378</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1394,9 +1586,15 @@
       <c r="F35" t="n">
         <v>9.923192115047963</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>12.99938167071283</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1208.942495376293</v>
+      </c>
+      <c r="I35" t="n">
+        <v>92.28568666994602</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1421,9 +1619,15 @@
       <c r="F36" t="n">
         <v>2.96730906838789</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>3.887174879588136</v>
+      </c>
+      <c r="H36" t="n">
+        <v>128.2767710264085</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.792119925680055</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1448,9 +1652,15 @@
       <c r="F37" t="n">
         <v>5.2138537994778</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>6.830148477315918</v>
+      </c>
+      <c r="H37" t="n">
+        <v>314.1868299565322</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.98372747759788</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1475,9 +1685,15 @@
       <c r="F38" t="n">
         <v>1.740266934731939</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>2.27974968449884</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25.07724652948724</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.914293628205137</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1502,9 +1718,15 @@
       <c r="F39" t="n">
         <v>6.525464618082547</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>8.548358649688137</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1529,9 +1751,15 @@
       <c r="F40" t="n">
         <v>9.29152492537186</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>12.17189765223714</v>
+      </c>
+      <c r="H40" t="n">
+        <v>219.0941577402685</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.72474486566935</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1556,9 +1784,15 @@
       <c r="F41" t="n">
         <v>9.190843378517298</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>12.04000482585766</v>
+      </c>
+      <c r="H41" t="n">
+        <v>734.4402943773173</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.06414460895553</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1583,9 +1817,15 @@
       <c r="F42" t="n">
         <v>3.813013505356644</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>4.995047692017204</v>
+      </c>
+      <c r="H42" t="n">
+        <v>199.8019076806881</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.25205402142657</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1610,9 +1850,15 @@
       <c r="F43" t="n">
         <v>1.55817907388744</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>2.041214586792546</v>
+      </c>
+      <c r="H43" t="n">
+        <v>146.9674502490633</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.21888933198957</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1637,9 +1883,15 @@
       <c r="F44" t="n">
         <v>1.659038561520078</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>2.173340515591302</v>
+      </c>
+      <c r="H44" t="n">
+        <v>132.5737714510694</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10.12013522527248</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1664,9 +1916,15 @@
       <c r="F45" t="n">
         <v>1.609389773863237</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>2.10830060376084</v>
+      </c>
+      <c r="H45" t="n">
+        <v>147.5810422632588</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.26572841704265</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1691,9 +1949,15 @@
       <c r="F46" t="n">
         <v>9.665207711683228</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>12.66142210230503</v>
+      </c>
+      <c r="H46" t="n">
+        <v>860.9767029567421</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65.72341243944607</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1718,9 +1982,15 @@
       <c r="F47" t="n">
         <v>7.451692341713619</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>9.761716967644841</v>
+      </c>
+      <c r="H47" t="n">
+        <v>234.2812072234762</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.88406162011267</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1745,9 +2015,15 @@
       <c r="F48" t="n">
         <v>6.034375100413754</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>7.905031381542018</v>
+      </c>
+      <c r="H48" t="n">
+        <v>758.8830126280337</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57.93000096397213</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1772,9 +2048,15 @@
       <c r="F49" t="n">
         <v>5.692809360133452</v>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>7.457580261774823</v>
+      </c>
+      <c r="H49" t="n">
+        <v>462.369976230039</v>
+      </c>
+      <c r="I49" t="n">
+        <v>35.29541803282746</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1799,9 +2081,15 @@
       <c r="F50" t="n">
         <v>4.064266447839691</v>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>5.324189046669996</v>
+      </c>
+      <c r="H50" t="n">
+        <v>212.9675618667999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.2570657913588</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1826,9 +2114,15 @@
       <c r="F51" t="n">
         <v>2.853652535552079</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3.738284821573224</v>
+      </c>
+      <c r="H51" t="n">
+        <v>130.8399687550628</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.987783874432267</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1853,9 +2147,15 @@
       <c r="F52" t="n">
         <v>3.015142398151962</v>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3.94983654157907</v>
+      </c>
+      <c r="H52" t="n">
+        <v>363.3849618252745</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.73931006299813</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1880,9 +2180,15 @@
       <c r="F53" t="n">
         <v>7.307352174579282</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>9.572631348698861</v>
+      </c>
+      <c r="H53" t="n">
+        <v>583.9305122706305</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.57484826493373</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1907,9 +2213,15 @@
       <c r="F54" t="n">
         <v>3.01574982395332</v>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>3.950632269378849</v>
+      </c>
+      <c r="H54" t="n">
+        <v>118.5189680813655</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.047249471859971</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1934,9 +2246,15 @@
       <c r="F55" t="n">
         <v>1.103584001518164</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1.445695041988795</v>
+      </c>
+      <c r="H55" t="n">
+        <v>127.221163695014</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.711539213359856</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1961,9 +2279,15 @@
       <c r="F56" t="n">
         <v>7.437719839383452</v>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>9.743412989592322</v>
+      </c>
+      <c r="H56" t="n">
+        <v>643.0652573130933</v>
+      </c>
+      <c r="I56" t="n">
+        <v>49.0889509399309</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1988,9 +2312,15 @@
       <c r="F57" t="n">
         <v>2.957738620064409</v>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>3.874637592284376</v>
+      </c>
+      <c r="H57" t="n">
+        <v>185.98260442965</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.19714537630915</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2015,9 +2345,15 @@
       <c r="F58" t="n">
         <v>2.98669407025139</v>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>3.912569232029321</v>
+      </c>
+      <c r="H58" t="n">
+        <v>387.3443539709028</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29.56827129548878</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2042,9 +2378,15 @@
       <c r="F59" t="n">
         <v>6.775906763864698</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>8.876437860662755</v>
+      </c>
+      <c r="H59" t="n">
+        <v>363.9339522871729</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27.78121773184529</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2069,9 +2411,15 @@
       <c r="F60" t="n">
         <v>3.724181798160204</v>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>4.878678155589868</v>
+      </c>
+      <c r="H60" t="n">
+        <v>29.27206893353921</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.234509078896128</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2096,9 +2444,15 @@
       <c r="F61" t="n">
         <v>7.139531592337086</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>9.352786385961583</v>
+      </c>
+      <c r="H61" t="n">
+        <v>879.1619202803888</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67.11159696796869</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2121,7 +2475,9 @@
       <c r="F62" t="n">
         <v>9.776137817538096</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>12.80674054097491</v>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2148,9 +2504,15 @@
       <c r="F63" t="n">
         <v>1.131452113930301</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1.482202269248695</v>
+      </c>
+      <c r="H63" t="n">
+        <v>71.14570892393735</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.430970146865448</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2175,9 +2537,15 @@
       <c r="F64" t="n">
         <v>5.847067578119493</v>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>7.659658527336536</v>
+      </c>
+      <c r="H64" t="n">
+        <v>367.6636093121537</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28.06592437497358</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2202,9 +2570,15 @@
       <c r="F65" t="n">
         <v>7.461197892427045</v>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>9.774169239079429</v>
+      </c>
+      <c r="H65" t="n">
+        <v>410.515108041336</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31.33703114819366</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2229,9 +2603,15 @@
       <c r="F66" t="n">
         <v>3.40308451570014</v>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>4.458040715567184</v>
+      </c>
+      <c r="H66" t="n">
+        <v>62.41257001794057</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.764318321980198</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2256,9 +2636,15 @@
       <c r="F67" t="n">
         <v>2.391261244148905</v>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>3.132552229835065</v>
+      </c>
+      <c r="H67" t="n">
+        <v>162.8927159514234</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12.43455846957431</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2283,9 +2669,15 @@
       <c r="F68" t="n">
         <v>2.007916960245257</v>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2.630371217921287</v>
+      </c>
+      <c r="H68" t="n">
+        <v>263.0371217921287</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20.07916960245257</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2310,9 +2702,15 @@
       <c r="F69" t="n">
         <v>9.014850642196237</v>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>11.80945434127707</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1074.660345056213</v>
+      </c>
+      <c r="I69" t="n">
+        <v>82.0351408439858</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2337,9 +2735,15 @@
       <c r="F70" t="n">
         <v>4.51165019210343</v>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>5.910261751655494</v>
+      </c>
+      <c r="H70" t="n">
+        <v>313.2438728377412</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.91174601814822</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2364,9 +2768,15 @@
       <c r="F71" t="n">
         <v>6.287236989987731</v>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>8.236280456883929</v>
+      </c>
+      <c r="H71" t="n">
+        <v>436.5228642148482</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33.322356046935</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2391,9 +2801,15 @@
       <c r="F72" t="n">
         <v>1.21585693637547</v>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1.592772586651866</v>
+      </c>
+      <c r="H72" t="n">
+        <v>49.37595018620784</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.769156502763963</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2418,9 +2834,15 @@
       <c r="F73" t="n">
         <v>3.414860951466943</v>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>4.473467846421695</v>
+      </c>
+      <c r="H73" t="n">
+        <v>326.5631527887837</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24.9284849457087</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2445,9 +2867,15 @@
       <c r="F74" t="n">
         <v>0.7540915872655884</v>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0.9878599793179209</v>
+      </c>
+      <c r="H74" t="n">
+        <v>81.00451830406952</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.183551015577834</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2472,9 +2900,15 @@
       <c r="F75" t="n">
         <v>6.332895429483235</v>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>8.296093012623039</v>
+      </c>
+      <c r="H75" t="n">
+        <v>696.8718130603353</v>
+      </c>
+      <c r="I75" t="n">
+        <v>53.19632160765934</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2499,9 +2933,15 @@
       <c r="F76" t="n">
         <v>9.891096174614626</v>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9891096174614642</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2526,9 +2966,15 @@
       <c r="F77" t="n">
         <v>9.727727666198824</v>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>12.74332324272046</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1159.642415087562</v>
+      </c>
+      <c r="I77" t="n">
+        <v>88.52232176240932</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2553,9 +2999,15 @@
       <c r="F78" t="n">
         <v>1.407201818847091</v>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>1.84343438268969</v>
+      </c>
+      <c r="H78" t="n">
+        <v>71.8939409248979</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.488087093503665</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2580,9 +3032,15 @@
       <c r="F79" t="n">
         <v>9.0532131205113</v>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>11.8597091878698</v>
+      </c>
+      <c r="H79" t="n">
+        <v>225.3344745695263</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17.20110492897149</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2607,9 +3065,15 @@
       <c r="F80" t="n">
         <v>2.830800951669011</v>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>3.708349246686405</v>
+      </c>
+      <c r="H80" t="n">
+        <v>270.7094950081075</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.66484694718378</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2634,9 +3098,15 @@
       <c r="F81" t="n">
         <v>5.81222779375704</v>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>7.614018409821722</v>
+      </c>
+      <c r="H81" t="n">
+        <v>30.45607363928689</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.324891117502816</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2661,9 +3131,15 @@
       <c r="F82" t="n">
         <v>2.997846863207374</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>3.92717939080166</v>
+      </c>
+      <c r="H82" t="n">
+        <v>239.5579428389013</v>
+      </c>
+      <c r="I82" t="n">
+        <v>18.28686586556498</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2688,9 +3164,15 @@
       <c r="F83" t="n">
         <v>9.109663898577061</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>11.93365970713595</v>
+      </c>
+      <c r="H83" t="n">
+        <v>107.4029373642235</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8.198697508719363</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2715,9 +3197,15 @@
       <c r="F84" t="n">
         <v>6.996779940882228</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>9.165781722555719</v>
+      </c>
+      <c r="H84" t="n">
+        <v>412.4601775150074</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31.4855097339701</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2742,9 +3230,15 @@
       <c r="F85" t="n">
         <v>4.65062049238104</v>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>6.092312845019163</v>
+      </c>
+      <c r="H85" t="n">
+        <v>261.969452335824</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19.99766811723845</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2769,9 +3263,15 @@
       <c r="F86" t="n">
         <v>3.248022543873005</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>4.254909532473636</v>
+      </c>
+      <c r="H86" t="n">
+        <v>34.03927625978909</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.598418035098401</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2796,9 +3296,15 @@
       <c r="F87" t="n">
         <v>1.683210805710946</v>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>2.20500615548134</v>
+      </c>
+      <c r="H87" t="n">
+        <v>112.4553139295483</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8.584375109125844</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2823,9 +3329,15 @@
       <c r="F88" t="n">
         <v>3.104338770052462</v>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>4.066683788768725</v>
+      </c>
+      <c r="H88" t="n">
+        <v>69.13362440906833</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.277375909089194</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2850,9 +3362,15 @@
       <c r="F89" t="n">
         <v>7.572277344371817</v>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>9.919683321127081</v>
+      </c>
+      <c r="H89" t="n">
+        <v>188.4739831014145</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14.3873269543065</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2877,9 +3395,15 @@
       <c r="F90" t="n">
         <v>8.381653671144427</v>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>10.9799663091992</v>
+      </c>
+      <c r="H90" t="n">
+        <v>175.6794609471872</v>
+      </c>
+      <c r="I90" t="n">
+        <v>13.4106458738311</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2904,9 +3428,15 @@
       <c r="F91" t="n">
         <v>5.985601195071611</v>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>7.841137565543811</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15.68227513108762</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.197120239014323</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2931,9 +3461,15 @@
       <c r="F92" t="n">
         <v>1.660851658657804</v>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2.175715672841723</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15.23000970989206</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.162596161060465</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2958,9 +3494,15 @@
       <c r="F93" t="n">
         <v>2.22545513623472</v>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>2.915346228467483</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17.4920773708049</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.33527308174083</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2985,9 +3527,15 @@
       <c r="F94" t="n">
         <v>5.239994714522227</v>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>6.864393076024118</v>
+      </c>
+      <c r="H94" t="n">
+        <v>41.18635845614471</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.143996828713341</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3010,7 +3558,9 @@
       <c r="F95" t="n">
         <v>2.021288383814327</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>2.647887782796769</v>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3037,9 +3587,15 @@
       <c r="F96" t="n">
         <v>3.83988941214463</v>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>5.030255129909466</v>
+      </c>
+      <c r="H96" t="n">
+        <v>130.7866333776461</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.983712471576041</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3064,9 +3620,15 @@
       <c r="F97" t="n">
         <v>4.965746194166297</v>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>6.505127514357849</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3091,9 +3653,3790 @@
       <c r="F98" t="n">
         <v>6.89619906184212</v>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>9.034020771013177</v>
+      </c>
+      <c r="H98" t="n">
+        <v>713.687640910041</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54.47997258855276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr.p.k.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Autors</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nosaukums</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Datums</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Skaits</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pašizmaksa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Kopā</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Peļņa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pride and Prejudice </t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44086</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.8756494758357</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.077100813344767</v>
+      </c>
+      <c r="H2" t="n">
+        <v>497.5558797077872</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37.98136486318998</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mary Wollstonecraft Shelley</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frankenstein; Or, The Modern Prometheus </t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.00697770621503</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.86914079514169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>503.6250108890682</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.44465731977624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Christmas Carol in Prose; Being a Ghost Story of Christmas </t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.360024285628592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.401631814173456</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.40979088504074</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.016014571377159</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lewis Carroll</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice's Adventures in Wonderland </t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.437935753912893</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.36369583762589</v>
+      </c>
+      <c r="H5" t="n">
+        <v>197.8191334020142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.10069720626066</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathaniel Hawthorne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Scarlet Letter </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.138562693443437</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.491517128410902</v>
+      </c>
+      <c r="H6" t="n">
+        <v>83.52495919101052</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.375951083283255</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henrik Ibsen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Et dukkehjem. English </t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.6564670228092</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.409971799880053</v>
+      </c>
+      <c r="H7" t="n">
+        <v>155.6094077974811</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.87858074789935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charlotte Perkins Gilman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Yellow Wallpaper </t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.293874620040071</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.554975752252494</v>
+      </c>
+      <c r="H8" t="n">
+        <v>726.1781571711896</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55.43344711230463</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Herman Melville</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moby Dick; Or, The Whale </t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44127</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.677282792312118</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.507240457928875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>63.13032824271974</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.819109026161804</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Franz Kafka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metamorphosis </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>7.0891586183045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.286797789978896</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Tale of Two Cities </t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.121266677897546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.94885934804579</v>
+      </c>
+      <c r="H11" t="n">
+        <v>477.9543739218315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.48506671159026</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Adventures of Sherlock Holmes </t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44122</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.018990959358909</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.50487815676017</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105.0487815676017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.018990959358902</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jonathan Swift</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Modest Proposal </t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44094</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.438201889380893</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.12404447508897</v>
+      </c>
+      <c r="H13" t="n">
+        <v>691.03231408363</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52.75055832699468</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Niccolò Machiavelli</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il Principe. English </t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>68</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.033886302953434</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.594391056868998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>448.4185918670919</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.23042686008336</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Robert Louis Stevenson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Strange Case of Dr. Jekyll and Mr. Hyde </t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.954276134372609</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.870101736028118</v>
+      </c>
+      <c r="H15" t="n">
+        <v>259.2968163138839</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.7936501002965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Importance of Being Earnest: A Trivial Comedy for Serious People </t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E16" t="n">
+        <v>99</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.698227408793114</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.46467790551898</v>
+      </c>
+      <c r="H16" t="n">
+        <v>739.003112646379</v>
+      </c>
+      <c r="I16" t="n">
+        <v>56.41245134705184</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Henry David Thoreau</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walden, and On The Duty Of Civil Disobedience </t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44129</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>8.291035613451101</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.86125665362094</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bram Stoker</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dracula </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.36927465884</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.2037498030804</v>
+      </c>
+      <c r="H18" t="n">
+        <v>97.22249881848242</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.421564795304022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Frank Belknap Long</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Time Trap </t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44116</v>
+      </c>
+      <c r="E19" t="n">
+        <v>41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.547591227207436</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.19734450764174</v>
+      </c>
+      <c r="H19" t="n">
+        <v>459.0911248133114</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.04512403155053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Michel de Montaigne</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Essays of Michel de Montaigne — Complete </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44108</v>
+      </c>
+      <c r="E20" t="n">
+        <v>72</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.916479766949029</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.750588494703229</v>
+      </c>
+      <c r="H20" t="n">
+        <v>558.0423716186325</v>
+      </c>
+      <c r="I20" t="n">
+        <v>42.5986543220331</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mark Twain</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adventures of Huckleberry Finn </t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E21" t="n">
+        <v>73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.9013403143194</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.97075581175841</v>
+      </c>
+      <c r="H21" t="n">
+        <v>946.8651742583642</v>
+      </c>
+      <c r="I21" t="n">
+        <v>72.27978429453151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Picture of Dorian Gray </t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44086</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.164745874947526</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.38581709618126</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37.54326838472504</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.865898349979012</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Frederick Douglass</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Narrative of the Life of Frederick Douglass, an American Slave </t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.484391928249877</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.94455342600734</v>
+      </c>
+      <c r="H23" t="n">
+        <v>97.22767130036698</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.421959641249401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John Camden Hotten</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Slang Dictionary: Etymological, Historical and Andecdotal </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.740408230871748</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.13993478244199</v>
+      </c>
+      <c r="H24" t="n">
+        <v>162.2389565190718</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.38465316939482</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mark Twain</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Adventures of Tom Sawyer </t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="E25" t="n">
+        <v>91</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.842818800146445</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.964092628191842</v>
+      </c>
+      <c r="H25" t="n">
+        <v>815.7324291654577</v>
+      </c>
+      <c r="I25" t="n">
+        <v>62.26965108133277</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Charlotte Brontë</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane Eyre: An Autobiography </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.93755190947544</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13.01819300141283</v>
+      </c>
+      <c r="H26" t="n">
+        <v>351.4912110381463</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.83139015558373</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kate Chopin</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Awakening, and Selected Short Stories </t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44082</v>
+      </c>
+      <c r="E27" t="n">
+        <v>88</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.987769488047227</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.223978029341867</v>
+      </c>
+      <c r="H27" t="n">
+        <v>459.7100665820843</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35.09237149481561</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Happy Prince, and Other Tales </t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.454937376472412</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.215967963178859</v>
+      </c>
+      <c r="H28" t="n">
+        <v>160.798398158943</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.27468688236206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>graf Leo Tolstoy</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">War and Peace </t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44124</v>
+      </c>
+      <c r="E29" t="n">
+        <v>90</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.063146702431752</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.392722180185595</v>
+      </c>
+      <c r="H29" t="n">
+        <v>125.3449962167036</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.568320321885764</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ayn Rand</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthem </t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44078</v>
+      </c>
+      <c r="E30" t="n">
+        <v>97</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.897825376649788</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.65615124341122</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1130.646670610889</v>
+      </c>
+      <c r="I30" t="n">
+        <v>86.30890615350313</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jacob Grimm and Wilhelm Grimm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grimms' Fairy Tales </t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>44091</v>
+      </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.27466917129673</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.289816614398717</v>
+      </c>
+      <c r="H31" t="n">
+        <v>321.7362460799038</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24.56001878472551</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great Expectations </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="E32" t="n">
+        <v>43</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.443936603129396</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.37155695009951</v>
+      </c>
+      <c r="H32" t="n">
+        <v>531.9769488542789</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.6089273934565</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>J. M. Barrie</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Pan </t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.809470410888117</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.54040623826343</v>
+      </c>
+      <c r="H33" t="n">
+        <v>230.8081247652687</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.61894082177628</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Homer</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Iliad </t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.482402950004767</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.42194786450625</v>
+      </c>
+      <c r="H34" t="n">
+        <v>981.3338812959934</v>
+      </c>
+      <c r="I34" t="n">
+        <v>74.9109833050378</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>W. E. B. Du Bois</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Souls of Black Folk </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E35" t="n">
+        <v>93</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.923192115047963</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12.99938167071283</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1208.942495376293</v>
+      </c>
+      <c r="I35" t="n">
+        <v>92.28568666994602</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Louisa May Alcott</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Little Women </t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E36" t="n">
+        <v>33</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.96730906838789</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.887174879588136</v>
+      </c>
+      <c r="H36" t="n">
+        <v>128.2767710264085</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.792119925680055</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Plato</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Republic </t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="E37" t="n">
+        <v>46</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.2138537994778</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.830148477315918</v>
+      </c>
+      <c r="H37" t="n">
+        <v>314.1868299565322</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.98372747759788</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Robert Louis Stevenson</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Treasure Island </t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.740266934731939</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.27974968449884</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25.07724652948724</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.914293628205137</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma </t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44089</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.525464618082547</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.548358649688137</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>James Joyce</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dubliners </t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.29152492537186</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.17189765223714</v>
+      </c>
+      <c r="H40" t="n">
+        <v>219.0941577402685</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.72474486566935</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>James Joyce</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulysses </t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.190843378517298</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12.04000482585766</v>
+      </c>
+      <c r="H41" t="n">
+        <v>734.4402943773173</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.06414460895553</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Hound of the Baskervilles </t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>44076</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.813013505356644</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.995047692017204</v>
+      </c>
+      <c r="H42" t="n">
+        <v>199.8019076806881</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.25205402142657</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Harriet Beecher Stowe</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uncle Tom's Cabin </t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="E43" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.55817907388744</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.041214586792546</v>
+      </c>
+      <c r="H43" t="n">
+        <v>146.9674502490633</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.21888933198957</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kahlil Gibran</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Prophet </t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>44097</v>
+      </c>
+      <c r="E44" t="n">
+        <v>61</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.659038561520078</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.173340515591302</v>
+      </c>
+      <c r="H44" t="n">
+        <v>132.5737714510694</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10.12013522527248</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thomas Hobbes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leviathan </t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E45" t="n">
+        <v>70</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.609389773863237</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.10830060376084</v>
+      </c>
+      <c r="H45" t="n">
+        <v>147.5810422632588</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.26572841704265</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Joseph Conrad</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heart of Darkness </t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="E46" t="n">
+        <v>68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.665207711683228</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12.66142210230503</v>
+      </c>
+      <c r="H46" t="n">
+        <v>860.9767029567421</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65.72341243944607</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alexandre Dumas</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Count of Monte Cristo, Illustrated </t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.451692341713619</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.761716967644841</v>
+      </c>
+      <c r="H47" t="n">
+        <v>234.2812072234762</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.88406162011267</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Andrée Hope</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chronicles of an Old Inn </t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>44085</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6.034375100413754</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.905031381542018</v>
+      </c>
+      <c r="H48" t="n">
+        <v>758.8830126280337</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57.93000096397213</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pennsylvania Dutch Cooking </t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E49" t="n">
+        <v>62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.692809360133452</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.457580261774823</v>
+      </c>
+      <c r="H49" t="n">
+        <v>462.369976230039</v>
+      </c>
+      <c r="I49" t="n">
+        <v>35.29541803282746</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>L. M. Montgomery</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne of Green Gables </t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="E50" t="n">
+        <v>40</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.064266447839691</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.324189046669996</v>
+      </c>
+      <c r="H50" t="n">
+        <v>212.9675618667999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.2570657913588</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D. W. Barefoot</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morley's Weapon </t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>44079</v>
+      </c>
+      <c r="E51" t="n">
+        <v>35</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.853652535552079</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.738284821573224</v>
+      </c>
+      <c r="H51" t="n">
+        <v>130.8399687550628</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.987783874432267</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Antonio Pigafetta</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Philippine Islands, 1493-1898, Volume 33, 1519-1522 </t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>44125</v>
+      </c>
+      <c r="E52" t="n">
+        <v>92</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.015142398151962</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.94983654157907</v>
+      </c>
+      <c r="H52" t="n">
+        <v>363.3849618252745</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.73931006299813</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>David P. Barrows</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A History of the Philippines </t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>44092</v>
+      </c>
+      <c r="E53" t="n">
+        <v>61</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.307352174579282</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.572631348698861</v>
+      </c>
+      <c r="H53" t="n">
+        <v>583.9305122706305</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.57484826493373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>John U. Wolff</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Dictionary of Cebuano Visayan </t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.01574982395332</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.950632269378849</v>
+      </c>
+      <c r="H54" t="n">
+        <v>118.5189680813655</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.047249471859971</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>C. J. Wedlake</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peril Orbit </t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>44092</v>
+      </c>
+      <c r="E55" t="n">
+        <v>88</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.103584001518164</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.445695041988795</v>
+      </c>
+      <c r="H55" t="n">
+        <v>127.221163695014</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.711539213359856</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>L. Frank Baum</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Wonderful Wizard of Oz </t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>44102</v>
+      </c>
+      <c r="E56" t="n">
+        <v>66</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7.437719839383452</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.743412989592322</v>
+      </c>
+      <c r="H56" t="n">
+        <v>643.0652573130933</v>
+      </c>
+      <c r="I56" t="n">
+        <v>49.0889509399309</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>William Cathrall</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The History of Oswestry </t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>44129</v>
+      </c>
+      <c r="E57" t="n">
+        <v>48</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.957738620064409</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.874637592284376</v>
+      </c>
+      <c r="H57" t="n">
+        <v>185.98260442965</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.19714537630915</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Misérables </t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>44125</v>
+      </c>
+      <c r="E58" t="n">
+        <v>99</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.98669407025139</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.912569232029321</v>
+      </c>
+      <c r="H58" t="n">
+        <v>387.3443539709028</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29.56827129548878</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ray Bradbury</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asleep in Armageddon </t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E59" t="n">
+        <v>41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.775906763864698</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.876437860662755</v>
+      </c>
+      <c r="H59" t="n">
+        <v>363.9339522871729</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27.78121773184529</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevsky</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Brothers Karamazov </t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.724181798160204</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.878678155589868</v>
+      </c>
+      <c r="H60" t="n">
+        <v>29.27206893353921</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.234509078896128</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>J. H. Oswald Brown</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spectropia; or, Surprising Spectral Illusions </t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E61" t="n">
+        <v>94</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.139531592337086</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.352786385961583</v>
+      </c>
+      <c r="H61" t="n">
+        <v>879.1619202803888</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67.11159696796869</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Stanley</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surveying and Levelling Instruments, Theoretically and Practically Described. </t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>9.776137817538096</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.80674054097491</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Emily Brontë</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wuthering Heights </t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="E63" t="n">
+        <v>48</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.131452113930301</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.482202269248695</v>
+      </c>
+      <c r="H63" t="n">
+        <v>71.14570892393735</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.430970146865448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Henry James</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Turn of the Screw </t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="E64" t="n">
+        <v>48</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.847067578119493</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.659658527336536</v>
+      </c>
+      <c r="H64" t="n">
+        <v>367.6636093121537</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28.06592437497358</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Alfred Coppel</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jinx Ship to the Rescue </t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>44077</v>
+      </c>
+      <c r="E65" t="n">
+        <v>42</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.461197892427045</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.774169239079429</v>
+      </c>
+      <c r="H65" t="n">
+        <v>410.515108041336</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31.33703114819366</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Margaret St. Clair</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garden of Evil </t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.40308451570014</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.458040715567184</v>
+      </c>
+      <c r="H66" t="n">
+        <v>62.41257001794057</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.764318321980198</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ludwig Wittgenstein</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tractatus Logico-Philosophicus </t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E67" t="n">
+        <v>52</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.391261244148905</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.132552229835065</v>
+      </c>
+      <c r="H67" t="n">
+        <v>162.8927159514234</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12.43455846957431</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevsky</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prestuplenie i nakazanie. English </t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.007916960245257</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.630371217921287</v>
+      </c>
+      <c r="H68" t="n">
+        <v>263.0371217921287</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20.07916960245257</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Washington Irving</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Legend of Sleepy Hollow </t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44077</v>
+      </c>
+      <c r="E69" t="n">
+        <v>91</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.014850642196237</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11.80945434127707</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1074.660345056213</v>
+      </c>
+      <c r="I69" t="n">
+        <v>82.0351408439858</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Copperfield </t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="E70" t="n">
+        <v>53</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.51165019210343</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.910261751655494</v>
+      </c>
+      <c r="H70" t="n">
+        <v>313.2438728377412</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.91174601814822</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>H. G. Wells</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The War of the Worlds </t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="E71" t="n">
+        <v>53</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6.287236989987731</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.236280456883929</v>
+      </c>
+      <c r="H71" t="n">
+        <v>436.5228642148482</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33.322356046935</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>William Beattie</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The castles and abbeys of England; Vol. 2 of 2 </t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E72" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.21585693637547</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.592772586651866</v>
+      </c>
+      <c r="H72" t="n">
+        <v>49.37595018620784</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.769156502763963</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Jack London</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Call of the Wild </t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="E73" t="n">
+        <v>73</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.414860951466943</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.473467846421695</v>
+      </c>
+      <c r="H73" t="n">
+        <v>326.5631527887837</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24.9284849457087</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Miguel de Cervantes Saavedra</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don Quixote </t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44086</v>
+      </c>
+      <c r="E74" t="n">
+        <v>82</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7540915872655884</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9878599793179209</v>
+      </c>
+      <c r="H74" t="n">
+        <v>81.00451830406952</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.183551015577834</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bernard Shaw</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pygmalion </t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="E75" t="n">
+        <v>84</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.332895429483235</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8.296093012623039</v>
+      </c>
+      <c r="H75" t="n">
+        <v>696.8718130603353</v>
+      </c>
+      <c r="I75" t="n">
+        <v>53.19632160765934</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>John Aubrey</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Natural History of Wiltshire </t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.891096174614626</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9891096174614642</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>W.V. Athanas</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Madcap Metalloids </t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E77" t="n">
+        <v>91</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9.727727666198824</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12.74332324272046</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1159.642415087562</v>
+      </c>
+      <c r="I77" t="n">
+        <v>88.52232176240932</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hermann Hesse</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siddhartha </t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E78" t="n">
+        <v>39</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.407201818847091</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.84343438268969</v>
+      </c>
+      <c r="H78" t="n">
+        <v>71.8939409248979</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.488087093503665</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Friedrich Wilhelm Nietzsche</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beyond Good and Evil </t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="E79" t="n">
+        <v>19</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.0532131205113</v>
+      </c>
+      <c r="G79" t="n">
+        <v>11.8597091878698</v>
+      </c>
+      <c r="H79" t="n">
+        <v>225.3344745695263</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17.20110492897149</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Study in Scarlet </t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E80" t="n">
+        <v>73</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.830800951669011</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.708349246686405</v>
+      </c>
+      <c r="H80" t="n">
+        <v>270.7094950081075</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.66484694718378</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Edgar Allan Poe</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Masque of the Red Death </t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.81222779375704</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.614018409821722</v>
+      </c>
+      <c r="H81" t="n">
+        <v>30.45607363928689</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.324891117502816</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Voltaire</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candide </t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>44108</v>
+      </c>
+      <c r="E82" t="n">
+        <v>61</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.997846863207374</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.92717939080166</v>
+      </c>
+      <c r="H82" t="n">
+        <v>239.5579428389013</v>
+      </c>
+      <c r="I82" t="n">
+        <v>18.28686586556498</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Daniel Defoe</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Journal of the Plague Year </t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9.109663898577061</v>
+      </c>
+      <c r="G83" t="n">
+        <v>11.93365970713595</v>
+      </c>
+      <c r="H83" t="n">
+        <v>107.4029373642235</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8.198697508719363</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Upton Sinclair</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jungle </t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E84" t="n">
+        <v>45</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6.996779940882228</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9.165781722555719</v>
+      </c>
+      <c r="H84" t="n">
+        <v>412.4601775150074</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31.4855097339701</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Frances Hodgson Burnett</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Secret Garden </t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="E85" t="n">
+        <v>43</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.65062049238104</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6.092312845019163</v>
+      </c>
+      <c r="H85" t="n">
+        <v>261.969452335824</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19.99766811723845</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>William J. Brittain</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Burnt Planet </t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>44084</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.248022543873005</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.254909532473636</v>
+      </c>
+      <c r="H86" t="n">
+        <v>34.03927625978909</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.598418035098401</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rudyard Kipling</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jungle Book </t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>44093</v>
+      </c>
+      <c r="E87" t="n">
+        <v>51</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.683210805710946</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.20500615548134</v>
+      </c>
+      <c r="H87" t="n">
+        <v>112.4553139295483</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8.584375109125844</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Homer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Odyssey </t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>44081</v>
+      </c>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.104338770052462</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.066683788768725</v>
+      </c>
+      <c r="H88" t="n">
+        <v>69.13362440906833</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.277375909089194</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>graf Leo Tolstoy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna Karenina </t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="E89" t="n">
+        <v>19</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7.572277344371817</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.919683321127081</v>
+      </c>
+      <c r="H89" t="n">
+        <v>188.4739831014145</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14.3873269543065</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Dante Alighieri</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divine Comedy, Longfellow's Translation, Hell </t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44127</v>
+      </c>
+      <c r="E90" t="n">
+        <v>16</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.381653671144427</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10.9799663091992</v>
+      </c>
+      <c r="H90" t="n">
+        <v>175.6794609471872</v>
+      </c>
+      <c r="I90" t="n">
+        <v>13.4106458738311</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Jonathan Swift</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gulliver's Travels into Several Remote Nations of the World </t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>44126</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.985601195071611</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.841137565543811</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15.68227513108762</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.197120239014323</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oliver Twist </t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44128</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.660851658657804</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.175715672841723</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15.23000970989206</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.162596161060465</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Martin A. S. Hume</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queens of old Spain </t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44096</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.22545513623472</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.915346228467483</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17.4920773708049</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.33527308174083</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Daniel Defoe</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Life and Adventures of Robinson Crusoe </t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5.239994714522227</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.864393076024118</v>
+      </c>
+      <c r="H94" t="n">
+        <v>41.18635845614471</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.143996828713341</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graham's Magazine, Vol. XVIII, No. 6, June 1841 </t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>2.021288383814327</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.647887782796769</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Herself by Harriet A. Jacobs</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incidents in the Life of a Slave Girl, Written </t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44130</v>
+      </c>
+      <c r="E96" t="n">
+        <v>26</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.83988941214463</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.030255129909466</v>
+      </c>
+      <c r="H96" t="n">
+        <v>130.7866333776461</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.983712471576041</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Equiano</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Interesting Narrative of the Life of Olaudah Equiano, Or Gustavus Vassa, The African </t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44091</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4.965746194166297</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6.505127514357849</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Jerome K. Jerome</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Three Men in a Boat (To Say Nothing of the Dog) </t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44091</v>
+      </c>
+      <c r="E98" t="n">
+        <v>79</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6.89619906184212</v>
+      </c>
+      <c r="G98" t="n">
+        <v>9.034020771013177</v>
+      </c>
+      <c r="H98" t="n">
+        <v>713.687640910041</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54.47997258855276</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4506</v>
+      </c>
+      <c r="F99" t="n">
+        <v>525.9795275417206</v>
+      </c>
+      <c r="G99" t="n">
+        <v>689.0331810796539</v>
+      </c>
+      <c r="H99" t="n">
+        <v>30663.63310492675</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2340.735351521128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Datums</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44091</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -6938,7 +6938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6954,488 +6954,233 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44086</v>
+      <c r="A2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44133</v>
+      <c r="A3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44095</v>
+      <c r="A4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44121</v>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44132</v>
+      <c r="A6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44117</v>
+      <c r="A7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44100</v>
+      <c r="A8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44127</v>
+      <c r="A9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44133</v>
+      <c r="A10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44120</v>
+      <c r="A11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44122</v>
+      <c r="A12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44094</v>
+      <c r="A13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44128</v>
+      <c r="A14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44081</v>
+      <c r="A15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44126</v>
+      <c r="A16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44129</v>
+      <c r="A17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44133</v>
+      <c r="A18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44116</v>
+      <c r="A19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44108</v>
+      <c r="A20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44111</v>
+      <c r="A21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44086</v>
+      <c r="A22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>44132</v>
+      <c r="A23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44096</v>
+      <c r="A24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44083</v>
+      <c r="A25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44109</v>
+      <c r="A26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44082</v>
+      <c r="A27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44090</v>
+      <c r="A28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44124</v>
+      <c r="A29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44078</v>
+      <c r="A30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44091</v>
+      <c r="A31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44123</v>
+      <c r="A32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44111</v>
+      <c r="A33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44126</v>
+      <c r="A34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44128</v>
+      <c r="A35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44096</v>
+      <c r="A36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44133</v>
+      <c r="A37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44105</v>
+      <c r="A38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44089</v>
+      <c r="A39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44090</v>
+      <c r="A40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44126</v>
+      <c r="A41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44076</v>
+      <c r="A42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44088</v>
+      <c r="A43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44097</v>
+      <c r="A44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44112</v>
+      <c r="A45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44088</v>
+      <c r="A46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44085</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44110</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>44093</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>44118</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>44091</v>
+      <c r="A47" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -6938,7 +6938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6954,233 +6954,493 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>6</v>
+      <c r="A2" s="2" t="n">
+        <v>44086</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
+      <c r="A3" s="2" t="n">
+        <v>44133</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" s="2" t="n">
+        <v>44095</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" s="2" t="n">
+        <v>44121</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
+      <c r="A6" s="2" t="n">
+        <v>44132</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
+      <c r="A7" s="2" t="n">
+        <v>44117</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
+      <c r="A8" s="2" t="n">
+        <v>44100</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
+      <c r="A9" s="2" t="n">
+        <v>44127</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
+      <c r="A10" s="2" t="n">
+        <v>44133</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
+      <c r="A11" s="2" t="n">
+        <v>44120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
+      <c r="A12" s="2" t="n">
+        <v>44122</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
+      <c r="A13" s="2" t="n">
+        <v>44094</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
+      <c r="A14" s="2" t="n">
+        <v>44128</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
+      <c r="A15" s="2" t="n">
+        <v>44081</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
+      <c r="A16" s="2" t="n">
+        <v>44126</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
+      <c r="A17" s="2" t="n">
+        <v>44129</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>2</v>
+      <c r="A18" s="2" t="n">
+        <v>44133</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
+      <c r="A19" s="2" t="n">
+        <v>44116</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>2</v>
+      <c r="A20" s="2" t="n">
+        <v>44108</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
+      <c r="A21" s="2" t="n">
+        <v>44111</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>2</v>
+      <c r="A22" s="2" t="n">
+        <v>44086</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
+      <c r="A23" s="2" t="n">
+        <v>44132</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>2</v>
+      <c r="A24" s="2" t="n">
+        <v>44096</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>2</v>
+      <c r="A25" s="2" t="n">
+        <v>44083</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>2</v>
+      <c r="A26" s="2" t="n">
+        <v>44109</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
+      <c r="A27" s="2" t="n">
+        <v>44082</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
+      <c r="A28" s="2" t="n">
+        <v>44090</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
+      <c r="A29" s="2" t="n">
+        <v>44124</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
+      <c r="A30" s="2" t="n">
+        <v>44078</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
+      <c r="A31" s="2" t="n">
+        <v>44091</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
+      <c r="A32" s="2" t="n">
+        <v>44123</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
+      <c r="A33" s="2" t="n">
+        <v>44111</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
+      <c r="A34" s="2" t="n">
+        <v>44126</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
+      <c r="A35" s="2" t="n">
+        <v>44128</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
+      <c r="A36" s="2" t="n">
+        <v>44096</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
+      <c r="A37" s="2" t="n">
+        <v>44133</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
+      <c r="A38" s="2" t="n">
+        <v>44105</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
+      <c r="A39" s="2" t="n">
+        <v>44089</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1</v>
+      <c r="A40" s="2" t="n">
+        <v>44090</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
+      <c r="A41" s="2" t="n">
+        <v>44126</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
+      <c r="A42" s="2" t="n">
+        <v>44076</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
+      <c r="A43" s="2" t="n">
+        <v>44088</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
+      <c r="A44" s="2" t="n">
+        <v>44097</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
+      <c r="A45" s="2" t="n">
+        <v>44112</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
+      <c r="A46" s="2" t="n">
+        <v>44088</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
+      <c r="A47" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -7439,8 +7439,56 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>46</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020-10-22    6
+2020-10-08    4
+2020-09-07    4
+2020-10-28    4
+2020-10-29    4
+2020-09-22    4
+2020-10-07    4
+2020-10-24    4
+2020-09-14    3
+2020-09-17    3
+2020-09-16    3
+2020-09-09    3
+2020-09-12    3
+2020-09-21    3
+2020-10-16    3
+2020-09-30    2
+2020-10-25    2
+2020-10-21    2
+2020-09-18    2
+2020-10-01    2
+2020-10-19    2
+2020-10-17    2
+2020-10-04    2
+2020-09-03    2
+2020-10-23    2
+2020-09-29    2
+2020-09-19    1
+2020-09-28    1
+2020-10-06    1
+2020-09-10    1
+2020-09-11    1
+2020-09-05    1
+2020-10-14    1
+2020-10-20    1
+2020-09-23    1
+2020-09-02    1
+2020-09-15    1
+2020-09-04    1
+2020-09-08    1
+2020-10-05    1
+2020-10-12    1
+2020-09-20    1
+2020-10-18    1
+2020-09-26    1
+2020-10-13    1
+2020-10-26    1
+Name: Datums, dtype: int64</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -6938,7 +6938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7438,59 +7438,6 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2020-10-22    6
-2020-10-08    4
-2020-09-07    4
-2020-10-28    4
-2020-10-29    4
-2020-09-22    4
-2020-10-07    4
-2020-10-24    4
-2020-09-14    3
-2020-09-17    3
-2020-09-16    3
-2020-09-09    3
-2020-09-12    3
-2020-09-21    3
-2020-10-16    3
-2020-09-30    2
-2020-10-25    2
-2020-10-21    2
-2020-09-18    2
-2020-10-01    2
-2020-10-19    2
-2020-10-17    2
-2020-10-04    2
-2020-09-03    2
-2020-10-23    2
-2020-09-29    2
-2020-09-19    1
-2020-09-28    1
-2020-10-06    1
-2020-09-10    1
-2020-09-11    1
-2020-09-05    1
-2020-10-14    1
-2020-10-20    1
-2020-09-23    1
-2020-09-02    1
-2020-09-15    1
-2020-09-04    1
-2020-09-08    1
-2020-10-05    1
-2020-10-12    1
-2020-09-20    1
-2020-10-18    1
-2020-09-26    1
-2020-10-13    1
-2020-10-26    1
-Name: Datums, dtype: int64</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -10,6 +10,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7441,4 +7442,515 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Datums</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -6939,7 +6939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7437,6 +7437,24 @@
     <row r="98">
       <c r="A98" s="2" t="n">
         <v>44091</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0     False
+1     False
+2     False
+3     False
+4     False
+      ...  
+93    False
+94    False
+95    False
+96    False
+0     False
+Name: Datums, Length: 98, dtype: bool</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7450,7 +7468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7950,6 +7968,24 @@
         <v>44091</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0     False
+1     False
+2     False
+3     False
+4     False
+      ...  
+93    False
+94    False
+95    False
+96    False
+0     False
+Name: Datums, Length: 98, dtype: bool</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -6939,7 +6939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7437,24 +7437,6 @@
     <row r="98">
       <c r="A98" s="2" t="n">
         <v>44091</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0     False
-1     False
-2     False
-3     False
-4     False
-      ...  
-93    False
-94    False
-95    False
-96    False
-0     False
-Name: Datums, Length: 98, dtype: bool</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -7468,7 +7450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7479,511 +7461,3225 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Nr.p.k.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Autors</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nosaukums</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Datums</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Skaits</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pašizmaksa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Kopā</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Peļņa</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pride and Prejudice </t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>44086</v>
       </c>
+      <c r="E2" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.8756494758357</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.077100813344767</v>
+      </c>
+      <c r="H2" t="n">
+        <v>497.5558797077872</v>
+      </c>
+      <c r="I2" t="n">
+        <v>37.98136486318998</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mary Wollstonecraft Shelley</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frankenstein; Or, The Modern Prometheus </t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>44133</v>
       </c>
+      <c r="E3" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.00697770621503</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.86914079514169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>503.6250108890682</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.44465731977624</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Christmas Carol in Prose; Being a Ghost Story of Christmas </t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>44095</v>
       </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.360024285628592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.401631814173456</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.40979088504074</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.016014571377159</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lewis Carroll</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice's Adventures in Wonderland </t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>44121</v>
       </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.437935753912893</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.36369583762589</v>
+      </c>
+      <c r="H5" t="n">
+        <v>197.8191334020142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.10069720626066</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathaniel Hawthorne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Scarlet Letter </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>44132</v>
       </c>
+      <c r="E6" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.138562693443437</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.491517128410902</v>
+      </c>
+      <c r="H6" t="n">
+        <v>83.52495919101052</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.375951083283255</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henrik Ibsen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Et dukkehjem. English </t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>44117</v>
       </c>
+      <c r="E7" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.6564670228092</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.409971799880053</v>
+      </c>
+      <c r="H7" t="n">
+        <v>155.6094077974811</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.87858074789935</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charlotte Perkins Gilman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Yellow Wallpaper </t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>44100</v>
       </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.293874620040071</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.554975752252494</v>
+      </c>
+      <c r="H8" t="n">
+        <v>726.1781571711896</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55.43344711230463</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Herman Melville</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moby Dick; Or, The Whale </t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>44127</v>
       </c>
+      <c r="E9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.677282792312118</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.507240457928875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>63.13032824271974</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.819109026161804</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Franz Kafka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metamorphosis </t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>44133</v>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>7.0891586183045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.286797789978896</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Tale of Two Cities </t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>44120</v>
       </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.121266677897546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.94885934804579</v>
+      </c>
+      <c r="H11" t="n">
+        <v>477.9543739218315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.48506671159026</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Adventures of Sherlock Holmes </t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>44122</v>
       </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.018990959358909</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.50487815676017</v>
+      </c>
+      <c r="H12" t="n">
+        <v>105.0487815676017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.018990959358902</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jonathan Swift</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Modest Proposal </t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>44094</v>
       </c>
+      <c r="E13" t="n">
+        <v>97</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.438201889380893</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.12404447508897</v>
+      </c>
+      <c r="H13" t="n">
+        <v>691.03231408363</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52.75055832699468</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Niccolò Machiavelli</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il Principe. English </t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>44128</v>
       </c>
+      <c r="E14" t="n">
+        <v>68</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.033886302953434</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.594391056868998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>448.4185918670919</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.23042686008336</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Robert Louis Stevenson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Strange Case of Dr. Jekyll and Mr. Hyde </t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
         <v>44081</v>
       </c>
+      <c r="E15" t="n">
+        <v>67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.954276134372609</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.870101736028118</v>
+      </c>
+      <c r="H15" t="n">
+        <v>259.2968163138839</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.7936501002965</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Importance of Being Earnest: A Trivial Comedy for Serious People </t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>44126</v>
       </c>
+      <c r="E16" t="n">
+        <v>99</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.698227408793114</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.46467790551898</v>
+      </c>
+      <c r="H16" t="n">
+        <v>739.003112646379</v>
+      </c>
+      <c r="I16" t="n">
+        <v>56.41245134705184</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Henry David Thoreau</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walden, and On The Duty Of Civil Disobedience </t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>44129</v>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>8.291035613451101</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.86125665362094</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bram Stoker</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dracula </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>44133</v>
       </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.36927465884</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.2037498030804</v>
+      </c>
+      <c r="H18" t="n">
+        <v>97.22249881848242</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.421564795304022</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Frank Belknap Long</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Time Trap </t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>44116</v>
       </c>
+      <c r="E19" t="n">
+        <v>41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.547591227207436</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.19734450764174</v>
+      </c>
+      <c r="H19" t="n">
+        <v>459.0911248133114</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.04512403155053</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Michel de Montaigne</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Essays of Michel de Montaigne — Complete </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>44108</v>
       </c>
+      <c r="E20" t="n">
+        <v>72</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.916479766949029</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.750588494703229</v>
+      </c>
+      <c r="H20" t="n">
+        <v>558.0423716186325</v>
+      </c>
+      <c r="I20" t="n">
+        <v>42.5986543220331</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mark Twain</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adventures of Huckleberry Finn </t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>44111</v>
       </c>
+      <c r="E21" t="n">
+        <v>73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.9013403143194</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.97075581175841</v>
+      </c>
+      <c r="H21" t="n">
+        <v>946.8651742583642</v>
+      </c>
+      <c r="I21" t="n">
+        <v>72.27978429453151</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Picture of Dorian Gray </t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>44086</v>
       </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.164745874947526</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.38581709618126</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37.54326838472504</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.865898349979012</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Frederick Douglass</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Narrative of the Life of Frederick Douglass, an American Slave </t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>44132</v>
       </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.484391928249877</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.94455342600734</v>
+      </c>
+      <c r="H23" t="n">
+        <v>97.22767130036698</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.421959641249401</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John Camden Hotten</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Slang Dictionary: Etymological, Historical and Andecdotal </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>44096</v>
       </c>
+      <c r="E24" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.740408230871748</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.13993478244199</v>
+      </c>
+      <c r="H24" t="n">
+        <v>162.2389565190718</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.38465316939482</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mark Twain</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Adventures of Tom Sawyer </t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>44083</v>
       </c>
+      <c r="E25" t="n">
+        <v>91</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.842818800146445</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.964092628191842</v>
+      </c>
+      <c r="H25" t="n">
+        <v>815.7324291654577</v>
+      </c>
+      <c r="I25" t="n">
+        <v>62.26965108133277</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Charlotte Brontë</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane Eyre: An Autobiography </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>44109</v>
       </c>
+      <c r="E26" t="n">
+        <v>27</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.93755190947544</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13.01819300141283</v>
+      </c>
+      <c r="H26" t="n">
+        <v>351.4912110381463</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.83139015558373</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kate Chopin</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Awakening, and Selected Short Stories </t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>44082</v>
       </c>
+      <c r="E27" t="n">
+        <v>88</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.987769488047227</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.223978029341867</v>
+      </c>
+      <c r="H27" t="n">
+        <v>459.7100665820843</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35.09237149481561</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Oscar Wilde</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Happy Prince, and Other Tales </t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>44090</v>
       </c>
+      <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.454937376472412</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.215967963178859</v>
+      </c>
+      <c r="H28" t="n">
+        <v>160.798398158943</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.27468688236206</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>graf Leo Tolstoy</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">War and Peace </t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>44124</v>
       </c>
+      <c r="E29" t="n">
+        <v>90</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.063146702431752</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.392722180185595</v>
+      </c>
+      <c r="H29" t="n">
+        <v>125.3449962167036</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.568320321885764</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ayn Rand</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthem </t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>44078</v>
       </c>
+      <c r="E30" t="n">
+        <v>97</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.897825376649788</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.65615124341122</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1130.646670610889</v>
+      </c>
+      <c r="I30" t="n">
+        <v>86.30890615350313</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jacob Grimm and Wilhelm Grimm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grimms' Fairy Tales </t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>44091</v>
       </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.27466917129673</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.289816614398717</v>
+      </c>
+      <c r="H31" t="n">
+        <v>321.7362460799038</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24.56001878472551</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great Expectations </t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>44123</v>
       </c>
+      <c r="E32" t="n">
+        <v>43</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.443936603129396</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.37155695009951</v>
+      </c>
+      <c r="H32" t="n">
+        <v>531.9769488542789</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.6089273934565</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>J. M. Barrie</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Pan </t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
         <v>44111</v>
       </c>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.809470410888117</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.54040623826343</v>
+      </c>
+      <c r="H33" t="n">
+        <v>230.8081247652687</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17.61894082177628</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Homer</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Iliad </t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
         <v>44126</v>
       </c>
+      <c r="E34" t="n">
+        <v>79</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.482402950004767</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.42194786450625</v>
+      </c>
+      <c r="H34" t="n">
+        <v>981.3338812959934</v>
+      </c>
+      <c r="I34" t="n">
+        <v>74.9109833050378</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>W. E. B. Du Bois</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Souls of Black Folk </t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>44128</v>
       </c>
+      <c r="E35" t="n">
+        <v>93</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.923192115047963</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12.99938167071283</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1208.942495376293</v>
+      </c>
+      <c r="I35" t="n">
+        <v>92.28568666994602</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Louisa May Alcott</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Little Women </t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
         <v>44096</v>
       </c>
+      <c r="E36" t="n">
+        <v>33</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.96730906838789</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.887174879588136</v>
+      </c>
+      <c r="H36" t="n">
+        <v>128.2767710264085</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.792119925680055</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Plato</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Republic </t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>44133</v>
       </c>
+      <c r="E37" t="n">
+        <v>46</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.2138537994778</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.830148477315918</v>
+      </c>
+      <c r="H37" t="n">
+        <v>314.1868299565322</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23.98372747759788</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Robert Louis Stevenson</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Treasure Island </t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>44105</v>
       </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.740266934731939</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.27974968449884</v>
+      </c>
+      <c r="H38" t="n">
+        <v>25.07724652948724</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.914293628205137</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma </t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>44089</v>
       </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.525464618082547</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.548358649688137</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>James Joyce</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dubliners </t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>44090</v>
       </c>
+      <c r="E40" t="n">
+        <v>18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.29152492537186</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.17189765223714</v>
+      </c>
+      <c r="H40" t="n">
+        <v>219.0941577402685</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.72474486566935</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>James Joyce</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulysses </t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>44126</v>
       </c>
+      <c r="E41" t="n">
+        <v>61</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.190843378517298</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12.04000482585766</v>
+      </c>
+      <c r="H41" t="n">
+        <v>734.4402943773173</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.06414460895553</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Hound of the Baskervilles </t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
         <v>44076</v>
       </c>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.813013505356644</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.995047692017204</v>
+      </c>
+      <c r="H42" t="n">
+        <v>199.8019076806881</v>
+      </c>
+      <c r="I42" t="n">
+        <v>15.25205402142657</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Harriet Beecher Stowe</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uncle Tom's Cabin </t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>44088</v>
       </c>
+      <c r="E43" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.55817907388744</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.041214586792546</v>
+      </c>
+      <c r="H43" t="n">
+        <v>146.9674502490633</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.21888933198957</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kahlil Gibran</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Prophet </t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>44097</v>
       </c>
+      <c r="E44" t="n">
+        <v>61</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.659038561520078</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.173340515591302</v>
+      </c>
+      <c r="H44" t="n">
+        <v>132.5737714510694</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10.12013522527248</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Thomas Hobbes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leviathan </t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>44112</v>
       </c>
+      <c r="E45" t="n">
+        <v>70</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.609389773863237</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.10830060376084</v>
+      </c>
+      <c r="H45" t="n">
+        <v>147.5810422632588</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.26572841704265</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Joseph Conrad</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heart of Darkness </t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>44088</v>
       </c>
+      <c r="E46" t="n">
+        <v>68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.665207711683228</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12.66142210230503</v>
+      </c>
+      <c r="H46" t="n">
+        <v>860.9767029567421</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65.72341243944607</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Alexandre Dumas</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Count of Monte Cristo, Illustrated </t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>44095</v>
       </c>
+      <c r="E47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.451692341713619</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.761716967644841</v>
+      </c>
+      <c r="H47" t="n">
+        <v>234.2812072234762</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.88406162011267</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Andrée Hope</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chronicles of an Old Inn </t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>44085</v>
       </c>
+      <c r="E48" t="n">
+        <v>96</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6.034375100413754</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.905031381542018</v>
+      </c>
+      <c r="H48" t="n">
+        <v>758.8830126280337</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57.93000096397213</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pennsylvania Dutch Cooking </t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>44081</v>
       </c>
+      <c r="E49" t="n">
+        <v>62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.692809360133452</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.457580261774823</v>
+      </c>
+      <c r="H49" t="n">
+        <v>462.369976230039</v>
+      </c>
+      <c r="I49" t="n">
+        <v>35.29541803282746</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>L. M. Montgomery</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne of Green Gables </t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
         <v>44120</v>
       </c>
+      <c r="E50" t="n">
+        <v>40</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.064266447839691</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.324189046669996</v>
+      </c>
+      <c r="H50" t="n">
+        <v>212.9675618667999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.2570657913588</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D. W. Barefoot</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morley's Weapon </t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>44079</v>
       </c>
+      <c r="E51" t="n">
+        <v>35</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.853652535552079</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.738284821573224</v>
+      </c>
+      <c r="H51" t="n">
+        <v>130.8399687550628</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.987783874432267</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Antonio Pigafetta</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Philippine Islands, 1493-1898, Volume 33, 1519-1522 </t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>44125</v>
       </c>
+      <c r="E52" t="n">
+        <v>92</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.015142398151962</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.94983654157907</v>
+      </c>
+      <c r="H52" t="n">
+        <v>363.3849618252745</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.73931006299813</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>David P. Barrows</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A History of the Philippines </t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
         <v>44092</v>
       </c>
+      <c r="E53" t="n">
+        <v>61</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.307352174579282</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.572631348698861</v>
+      </c>
+      <c r="H53" t="n">
+        <v>583.9305122706305</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.57484826493373</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>John U. Wolff</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Dictionary of Cebuano Visayan </t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
         <v>44132</v>
       </c>
+      <c r="E54" t="n">
+        <v>30</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.01574982395332</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.950632269378849</v>
+      </c>
+      <c r="H54" t="n">
+        <v>118.5189680813655</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.047249471859971</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>C. J. Wedlake</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peril Orbit </t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
         <v>44092</v>
       </c>
+      <c r="E55" t="n">
+        <v>88</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.103584001518164</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.445695041988795</v>
+      </c>
+      <c r="H55" t="n">
+        <v>127.221163695014</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.711539213359856</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>L. Frank Baum</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Wonderful Wizard of Oz </t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
         <v>44102</v>
       </c>
+      <c r="E56" t="n">
+        <v>66</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7.437719839383452</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.743412989592322</v>
+      </c>
+      <c r="H56" t="n">
+        <v>643.0652573130933</v>
+      </c>
+      <c r="I56" t="n">
+        <v>49.0889509399309</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>William Cathrall</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The History of Oswestry </t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
         <v>44129</v>
       </c>
+      <c r="E57" t="n">
+        <v>48</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.957738620064409</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.874637592284376</v>
+      </c>
+      <c r="H57" t="n">
+        <v>185.98260442965</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.19714537630915</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Misérables </t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>44125</v>
       </c>
+      <c r="E58" t="n">
+        <v>99</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.98669407025139</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.912569232029321</v>
+      </c>
+      <c r="H58" t="n">
+        <v>387.3443539709028</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29.56827129548878</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ray Bradbury</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asleep in Armageddon </t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
         <v>44126</v>
       </c>
+      <c r="E59" t="n">
+        <v>41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.775906763864698</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.876437860662755</v>
+      </c>
+      <c r="H59" t="n">
+        <v>363.9339522871729</v>
+      </c>
+      <c r="I59" t="n">
+        <v>27.78121773184529</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevsky</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Brothers Karamazov </t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
         <v>44083</v>
       </c>
+      <c r="E60" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.724181798160204</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.878678155589868</v>
+      </c>
+      <c r="H60" t="n">
+        <v>29.27206893353921</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.234509078896128</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>J. H. Oswald Brown</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spectropia; or, Surprising Spectral Illusions </t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
         <v>44081</v>
       </c>
+      <c r="E61" t="n">
+        <v>94</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.139531592337086</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9.352786385961583</v>
+      </c>
+      <c r="H61" t="n">
+        <v>879.1619202803888</v>
+      </c>
+      <c r="I61" t="n">
+        <v>67.11159696796869</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Stanley</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surveying and Levelling Instruments, Theoretically and Practically Described. </t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
         <v>44105</v>
       </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>9.776137817538096</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.80674054097491</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Emily Brontë</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wuthering Heights </t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>44120</v>
       </c>
+      <c r="E63" t="n">
+        <v>48</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.131452113930301</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.482202269248695</v>
+      </c>
+      <c r="H63" t="n">
+        <v>71.14570892393735</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.430970146865448</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Henry James</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Turn of the Screw </t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
         <v>44110</v>
       </c>
+      <c r="E64" t="n">
+        <v>48</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.847067578119493</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.659658527336536</v>
+      </c>
+      <c r="H64" t="n">
+        <v>367.6636093121537</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28.06592437497358</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Alfred Coppel</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jinx Ship to the Rescue </t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
         <v>44077</v>
       </c>
+      <c r="E65" t="n">
+        <v>42</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.461197892427045</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.774169239079429</v>
+      </c>
+      <c r="H65" t="n">
+        <v>410.515108041336</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31.33703114819366</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Margaret St. Clair</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garden of Evil </t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
         <v>44103</v>
       </c>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.40308451570014</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.458040715567184</v>
+      </c>
+      <c r="H66" t="n">
+        <v>62.41257001794057</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.764318321980198</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ludwig Wittgenstein</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tractatus Logico-Philosophicus </t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
         <v>44111</v>
       </c>
+      <c r="E67" t="n">
+        <v>52</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.391261244148905</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.132552229835065</v>
+      </c>
+      <c r="H67" t="n">
+        <v>162.8927159514234</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12.43455846957431</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevsky</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prestuplenie i nakazanie. English </t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
         <v>44096</v>
       </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.007916960245257</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.630371217921287</v>
+      </c>
+      <c r="H68" t="n">
+        <v>263.0371217921287</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20.07916960245257</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Washington Irving</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Legend of Sleepy Hollow </t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
         <v>44077</v>
       </c>
+      <c r="E69" t="n">
+        <v>91</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9.014850642196237</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11.80945434127707</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1074.660345056213</v>
+      </c>
+      <c r="I69" t="n">
+        <v>82.0351408439858</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Copperfield </t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
         <v>44088</v>
       </c>
+      <c r="E70" t="n">
+        <v>53</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.51165019210343</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.910261751655494</v>
+      </c>
+      <c r="H70" t="n">
+        <v>313.2438728377412</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.91174601814822</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>H. G. Wells</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The War of the Worlds </t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
         <v>44121</v>
       </c>
+      <c r="E71" t="n">
+        <v>53</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6.287236989987731</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.236280456883929</v>
+      </c>
+      <c r="H71" t="n">
+        <v>436.5228642148482</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33.322356046935</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>William Beattie</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The castles and abbeys of England; Vol. 2 of 2 </t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
         <v>44103</v>
       </c>
+      <c r="E72" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.21585693637547</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.592772586651866</v>
+      </c>
+      <c r="H72" t="n">
+        <v>49.37595018620784</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.769156502763963</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Jack London</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Call of the Wild </t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
         <v>44123</v>
       </c>
+      <c r="E73" t="n">
+        <v>73</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.414860951466943</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.473467846421695</v>
+      </c>
+      <c r="H73" t="n">
+        <v>326.5631527887837</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24.9284849457087</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Miguel de Cervantes Saavedra</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don Quixote </t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
         <v>44086</v>
       </c>
+      <c r="E74" t="n">
+        <v>82</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7540915872655884</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9878599793179209</v>
+      </c>
+      <c r="H74" t="n">
+        <v>81.00451830406952</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6.183551015577834</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bernard Shaw</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pygmalion </t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
         <v>44090</v>
       </c>
+      <c r="E75" t="n">
+        <v>84</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.332895429483235</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8.296093012623039</v>
+      </c>
+      <c r="H75" t="n">
+        <v>696.8718130603353</v>
+      </c>
+      <c r="I75" t="n">
+        <v>53.19632160765934</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>John Aubrey</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Natural History of Wiltshire </t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>44095</v>
       </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.891096174614626</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12.95733598874516</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9891096174614642</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>W.V. Athanas</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Madcap Metalloids </t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>44112</v>
       </c>
+      <c r="E77" t="n">
+        <v>91</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9.727727666198824</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12.74332324272046</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1159.642415087562</v>
+      </c>
+      <c r="I77" t="n">
+        <v>88.52232176240932</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hermann Hesse</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siddhartha </t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
         <v>44132</v>
       </c>
+      <c r="E78" t="n">
+        <v>39</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.407201818847091</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.84343438268969</v>
+      </c>
+      <c r="H78" t="n">
+        <v>71.8939409248979</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.488087093503665</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Friedrich Wilhelm Nietzsche</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beyond Good and Evil </t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
         <v>44104</v>
       </c>
+      <c r="E79" t="n">
+        <v>19</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.0532131205113</v>
+      </c>
+      <c r="G79" t="n">
+        <v>11.8597091878698</v>
+      </c>
+      <c r="H79" t="n">
+        <v>225.3344745695263</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17.20110492897149</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Study in Scarlet </t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
         <v>44111</v>
       </c>
+      <c r="E80" t="n">
+        <v>73</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.830800951669011</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.708349246686405</v>
+      </c>
+      <c r="H80" t="n">
+        <v>270.7094950081075</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.66484694718378</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Edgar Allan Poe</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Masque of the Red Death </t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
         <v>44112</v>
       </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5.81222779375704</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.614018409821722</v>
+      </c>
+      <c r="H81" t="n">
+        <v>30.45607363928689</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.324891117502816</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Voltaire</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candide </t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
         <v>44108</v>
       </c>
+      <c r="E82" t="n">
+        <v>61</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.997846863207374</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.92717939080166</v>
+      </c>
+      <c r="H82" t="n">
+        <v>239.5579428389013</v>
+      </c>
+      <c r="I82" t="n">
+        <v>18.28686586556498</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Daniel Defoe</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Journal of the Plague Year </t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
         <v>44128</v>
       </c>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9.109663898577061</v>
+      </c>
+      <c r="G83" t="n">
+        <v>11.93365970713595</v>
+      </c>
+      <c r="H83" t="n">
+        <v>107.4029373642235</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8.198697508719363</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Upton Sinclair</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jungle </t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
         <v>44126</v>
       </c>
+      <c r="E84" t="n">
+        <v>45</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6.996779940882228</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9.165781722555719</v>
+      </c>
+      <c r="H84" t="n">
+        <v>412.4601775150074</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31.4855097339701</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Frances Hodgson Burnett</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Secret Garden </t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
         <v>44083</v>
       </c>
+      <c r="E85" t="n">
+        <v>43</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.65062049238104</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6.092312845019163</v>
+      </c>
+      <c r="H85" t="n">
+        <v>261.969452335824</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19.99766811723845</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>William J. Brittain</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Burnt Planet </t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
         <v>44084</v>
       </c>
+      <c r="E86" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.248022543873005</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.254909532473636</v>
+      </c>
+      <c r="H86" t="n">
+        <v>34.03927625978909</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.598418035098401</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rudyard Kipling</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jungle Book </t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
         <v>44093</v>
       </c>
+      <c r="E87" t="n">
+        <v>51</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.683210805710946</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.20500615548134</v>
+      </c>
+      <c r="H87" t="n">
+        <v>112.4553139295483</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8.584375109125844</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Homer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Odyssey </t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
         <v>44081</v>
       </c>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.104338770052462</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.066683788768725</v>
+      </c>
+      <c r="H88" t="n">
+        <v>69.13362440906833</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.277375909089194</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>graf Leo Tolstoy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna Karenina </t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
         <v>44118</v>
       </c>
+      <c r="E89" t="n">
+        <v>19</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7.572277344371817</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.919683321127081</v>
+      </c>
+      <c r="H89" t="n">
+        <v>188.4739831014145</v>
+      </c>
+      <c r="I89" t="n">
+        <v>14.3873269543065</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Dante Alighieri</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divine Comedy, Longfellow's Translation, Hell </t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
         <v>44127</v>
       </c>
+      <c r="E90" t="n">
+        <v>16</v>
+      </c>
+      <c r="F90" t="n">
+        <v>8.381653671144427</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10.9799663091992</v>
+      </c>
+      <c r="H90" t="n">
+        <v>175.6794609471872</v>
+      </c>
+      <c r="I90" t="n">
+        <v>13.4106458738311</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Jonathan Swift</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gulliver's Travels into Several Remote Nations of the World </t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
         <v>44126</v>
       </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.985601195071611</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.841137565543811</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15.68227513108762</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.197120239014323</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Charles Dickens</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oliver Twist </t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
         <v>44128</v>
       </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.660851658657804</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.175715672841723</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15.23000970989206</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.162596161060465</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Martin A. S. Hume</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queens of old Spain </t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
         <v>44096</v>
       </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.22545513623472</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.915346228467483</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17.4920773708049</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.33527308174083</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Daniel Defoe</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Life and Adventures of Robinson Crusoe </t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
         <v>44104</v>
       </c>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5.239994714522227</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.864393076024118</v>
+      </c>
+      <c r="H94" t="n">
+        <v>41.18635845614471</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.143996828713341</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graham's Magazine, Vol. XVIII, No. 6, June 1841 </t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
         <v>44112</v>
       </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>2.021288383814327</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.647887782796769</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Herself by Harriet A. Jacobs</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incidents in the Life of a Slave Girl, Written </t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
         <v>44130</v>
       </c>
+      <c r="E96" t="n">
+        <v>26</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.83988941214463</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.030255129909466</v>
+      </c>
+      <c r="H96" t="n">
+        <v>130.7866333776461</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.983712471576041</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Equiano</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Interesting Narrative of the Life of Olaudah Equiano, Or Gustavus Vassa, The African </t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
         <v>44091</v>
       </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4.965746194166297</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6.505127514357849</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Jerome K. Jerome</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Three Men in a Boat (To Say Nothing of the Dog) </t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
         <v>44091</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0     False
-1     False
-2     False
-3     False
-4     False
-      ...  
-93    False
-94    False
-95    False
-96    False
-0     False
-Name: Datums, Length: 98, dtype: bool</t>
-        </is>
+      <c r="E98" t="n">
+        <v>79</v>
+      </c>
+      <c r="F98" t="n">
+        <v>6.89619906184212</v>
+      </c>
+      <c r="G98" t="n">
+        <v>9.034020771013177</v>
+      </c>
+      <c r="H98" t="n">
+        <v>713.687640910041</v>
+      </c>
+      <c r="I98" t="n">
+        <v>54.47997258855276</v>
       </c>
     </row>
   </sheetData>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10685,4 +10686,50 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Datums</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -11,7 +11,6 @@
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7451,3249 +7450,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nr.p.k.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Autors</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nosaukums</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Datums</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Skaits</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pašizmaksa</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cena</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Kopā</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Peļņa</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jane Austen</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pride and Prejudice </t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>98</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.8756494758357</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.077100813344767</v>
-      </c>
-      <c r="H2" t="n">
-        <v>497.5558797077872</v>
-      </c>
-      <c r="I2" t="n">
-        <v>37.98136486318998</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mary Wollstonecraft Shelley</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frankenstein; Or, The Modern Prometheus </t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="E3" t="n">
-        <v>64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.00697770621503</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.86914079514169</v>
-      </c>
-      <c r="H3" t="n">
-        <v>503.6250108890682</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38.44465731977624</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charles Dickens</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A Christmas Carol in Prose; Being a Ghost Story of Christmas </t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>44095</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.360024285628592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.401631814173456</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26.40979088504074</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.016014571377159</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lewis Carroll</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice's Adventures in Wonderland </t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>44121</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.437935753912893</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12.36369583762589</v>
-      </c>
-      <c r="H5" t="n">
-        <v>197.8191334020142</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15.10069720626066</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nathaniel Hawthorne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Scarlet Letter </t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>44132</v>
-      </c>
-      <c r="E6" t="n">
-        <v>56</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.138562693443437</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.491517128410902</v>
-      </c>
-      <c r="H6" t="n">
-        <v>83.52495919101052</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.375951083283255</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Henrik Ibsen</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Et dukkehjem. English </t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>44117</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5.6564670228092</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.409971799880053</v>
-      </c>
-      <c r="H7" t="n">
-        <v>155.6094077974811</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.87858074789935</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Charlotte Perkins Gilman</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Yellow Wallpaper </t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>44100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>76</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.293874620040071</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.554975752252494</v>
-      </c>
-      <c r="H8" t="n">
-        <v>726.1781571711896</v>
-      </c>
-      <c r="I8" t="n">
-        <v>55.43344711230463</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Herman Melville</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moby Dick; Or, The Whale </t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>44127</v>
-      </c>
-      <c r="E9" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.677282792312118</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.507240457928875</v>
-      </c>
-      <c r="H9" t="n">
-        <v>63.13032824271974</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.819109026161804</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Franz Kafka</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Metamorphosis </t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>7.0891586183045</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.286797789978896</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Charles Dickens</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A Tale of Two Cities </t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>44120</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9.121266677897546</v>
-      </c>
-      <c r="G11" t="n">
-        <v>11.94885934804579</v>
-      </c>
-      <c r="H11" t="n">
-        <v>477.9543739218315</v>
-      </c>
-      <c r="I11" t="n">
-        <v>36.48506671159026</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Arthur Conan Doyle</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Adventures of Sherlock Holmes </t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>44122</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8.018990959358909</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.50487815676017</v>
-      </c>
-      <c r="H12" t="n">
-        <v>105.0487815676017</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.018990959358902</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Jonathan Swift</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A Modest Proposal </t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>44094</v>
-      </c>
-      <c r="E13" t="n">
-        <v>97</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.438201889380893</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7.12404447508897</v>
-      </c>
-      <c r="H13" t="n">
-        <v>691.03231408363</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52.75055832699468</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Niccolò Machiavelli</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il Principe. English </t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>44128</v>
-      </c>
-      <c r="E14" t="n">
-        <v>68</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.033886302953434</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.594391056868998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>448.4185918670919</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34.23042686008336</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Robert Louis Stevenson</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Strange Case of Dr. Jekyll and Mr. Hyde </t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>44081</v>
-      </c>
-      <c r="E15" t="n">
-        <v>67</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.954276134372609</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.870101736028118</v>
-      </c>
-      <c r="H15" t="n">
-        <v>259.2968163138839</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19.7936501002965</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Oscar Wilde</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Importance of Being Earnest: A Trivial Comedy for Serious People </t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="E16" t="n">
-        <v>99</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.698227408793114</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7.46467790551898</v>
-      </c>
-      <c r="H16" t="n">
-        <v>739.003112646379</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56.41245134705184</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Henry David Thoreau</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walden, and On The Duty Of Civil Disobedience </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>44129</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>8.291035613451101</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10.86125665362094</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Bram Stoker</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dracula </t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12.36927465884</v>
-      </c>
-      <c r="G18" t="n">
-        <v>16.2037498030804</v>
-      </c>
-      <c r="H18" t="n">
-        <v>97.22249881848242</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.421564795304022</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Frank Belknap Long</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Time Trap </t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>44116</v>
-      </c>
-      <c r="E19" t="n">
-        <v>41</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8.547591227207436</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11.19734450764174</v>
-      </c>
-      <c r="H19" t="n">
-        <v>459.0911248133114</v>
-      </c>
-      <c r="I19" t="n">
-        <v>35.04512403155053</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Michel de Montaigne</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Essays of Michel de Montaigne — Complete </t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>44108</v>
-      </c>
-      <c r="E20" t="n">
-        <v>72</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5.916479766949029</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7.750588494703229</v>
-      </c>
-      <c r="H20" t="n">
-        <v>558.0423716186325</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42.5986543220331</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Mark Twain</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adventures of Huckleberry Finn </t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>44111</v>
-      </c>
-      <c r="E21" t="n">
-        <v>73</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9.9013403143194</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12.97075581175841</v>
-      </c>
-      <c r="H21" t="n">
-        <v>946.8651742583642</v>
-      </c>
-      <c r="I21" t="n">
-        <v>72.27978429453151</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Oscar Wilde</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Picture of Dorian Gray </t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>44086</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7.164745874947526</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9.38581709618126</v>
-      </c>
-      <c r="H22" t="n">
-        <v>37.54326838472504</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.865898349979012</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Frederick Douglass</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Narrative of the Life of Frederick Douglass, an American Slave </t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>44132</v>
-      </c>
-      <c r="E23" t="n">
-        <v>50</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.484391928249877</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.94455342600734</v>
-      </c>
-      <c r="H23" t="n">
-        <v>97.22767130036698</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7.421959641249401</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>John Camden Hotten</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Slang Dictionary: Etymological, Historical and Andecdotal </t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="E24" t="n">
-        <v>16</v>
-      </c>
-      <c r="F24" t="n">
-        <v>7.740408230871748</v>
-      </c>
-      <c r="G24" t="n">
-        <v>10.13993478244199</v>
-      </c>
-      <c r="H24" t="n">
-        <v>162.2389565190718</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12.38465316939482</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Mark Twain</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Adventures of Tom Sawyer </t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>44083</v>
-      </c>
-      <c r="E25" t="n">
-        <v>91</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6.842818800146445</v>
-      </c>
-      <c r="G25" t="n">
-        <v>8.964092628191842</v>
-      </c>
-      <c r="H25" t="n">
-        <v>815.7324291654577</v>
-      </c>
-      <c r="I25" t="n">
-        <v>62.26965108133277</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Charlotte Brontë</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jane Eyre: An Autobiography </t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>44109</v>
-      </c>
-      <c r="E26" t="n">
-        <v>27</v>
-      </c>
-      <c r="F26" t="n">
-        <v>9.93755190947544</v>
-      </c>
-      <c r="G26" t="n">
-        <v>13.01819300141283</v>
-      </c>
-      <c r="H26" t="n">
-        <v>351.4912110381463</v>
-      </c>
-      <c r="I26" t="n">
-        <v>26.83139015558373</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Kate Chopin</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Awakening, and Selected Short Stories </t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>44082</v>
-      </c>
-      <c r="E27" t="n">
-        <v>88</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3.987769488047227</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.223978029341867</v>
-      </c>
-      <c r="H27" t="n">
-        <v>459.7100665820843</v>
-      </c>
-      <c r="I27" t="n">
-        <v>35.09237149481561</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Oscar Wilde</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Happy Prince, and Other Tales </t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>44090</v>
-      </c>
-      <c r="E28" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.454937376472412</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3.215967963178859</v>
-      </c>
-      <c r="H28" t="n">
-        <v>160.798398158943</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.27468688236206</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>graf Leo Tolstoy</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">War and Peace </t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>44124</v>
-      </c>
-      <c r="E29" t="n">
-        <v>90</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.063146702431752</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.392722180185595</v>
-      </c>
-      <c r="H29" t="n">
-        <v>125.3449962167036</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.568320321885764</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ayn Rand</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthem </t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>44078</v>
-      </c>
-      <c r="E30" t="n">
-        <v>97</v>
-      </c>
-      <c r="F30" t="n">
-        <v>8.897825376649788</v>
-      </c>
-      <c r="G30" t="n">
-        <v>11.65615124341122</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1130.646670610889</v>
-      </c>
-      <c r="I30" t="n">
-        <v>86.30890615350313</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Jacob Grimm and Wilhelm Grimm</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grimms' Fairy Tales </t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>44091</v>
-      </c>
-      <c r="E31" t="n">
-        <v>75</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.27466917129673</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4.289816614398717</v>
-      </c>
-      <c r="H31" t="n">
-        <v>321.7362460799038</v>
-      </c>
-      <c r="I31" t="n">
-        <v>24.56001878472551</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Charles Dickens</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great Expectations </t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>44123</v>
-      </c>
-      <c r="E32" t="n">
-        <v>43</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9.443936603129396</v>
-      </c>
-      <c r="G32" t="n">
-        <v>12.37155695009951</v>
-      </c>
-      <c r="H32" t="n">
-        <v>531.9769488542789</v>
-      </c>
-      <c r="I32" t="n">
-        <v>40.6089273934565</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>J. M. Barrie</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter Pan </t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>44111</v>
-      </c>
-      <c r="E33" t="n">
-        <v>20</v>
-      </c>
-      <c r="F33" t="n">
-        <v>8.809470410888117</v>
-      </c>
-      <c r="G33" t="n">
-        <v>11.54040623826343</v>
-      </c>
-      <c r="H33" t="n">
-        <v>230.8081247652687</v>
-      </c>
-      <c r="I33" t="n">
-        <v>17.61894082177628</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Homer</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Iliad </t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="E34" t="n">
-        <v>79</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9.482402950004767</v>
-      </c>
-      <c r="G34" t="n">
-        <v>12.42194786450625</v>
-      </c>
-      <c r="H34" t="n">
-        <v>981.3338812959934</v>
-      </c>
-      <c r="I34" t="n">
-        <v>74.9109833050378</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>W. E. B. Du Bois</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Souls of Black Folk </t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>44128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>93</v>
-      </c>
-      <c r="F35" t="n">
-        <v>9.923192115047963</v>
-      </c>
-      <c r="G35" t="n">
-        <v>12.99938167071283</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1208.942495376293</v>
-      </c>
-      <c r="I35" t="n">
-        <v>92.28568666994602</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Louisa May Alcott</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Little Women </t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="E36" t="n">
-        <v>33</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2.96730906838789</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3.887174879588136</v>
-      </c>
-      <c r="H36" t="n">
-        <v>128.2767710264085</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9.792119925680055</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Plato</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Republic </t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="E37" t="n">
-        <v>46</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5.2138537994778</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.830148477315918</v>
-      </c>
-      <c r="H37" t="n">
-        <v>314.1868299565322</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23.98372747759788</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Robert Louis Stevenson</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasure Island </t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="E38" t="n">
-        <v>11</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.740266934731939</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.27974968449884</v>
-      </c>
-      <c r="H38" t="n">
-        <v>25.07724652948724</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.914293628205137</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Jane Austen</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emma </t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>44089</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6.525464618082547</v>
-      </c>
-      <c r="G39" t="n">
-        <v>8.548358649688137</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>James Joyce</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dubliners </t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>44090</v>
-      </c>
-      <c r="E40" t="n">
-        <v>18</v>
-      </c>
-      <c r="F40" t="n">
-        <v>9.29152492537186</v>
-      </c>
-      <c r="G40" t="n">
-        <v>12.17189765223714</v>
-      </c>
-      <c r="H40" t="n">
-        <v>219.0941577402685</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16.72474486566935</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>James Joyce</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulysses </t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="E41" t="n">
-        <v>61</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9.190843378517298</v>
-      </c>
-      <c r="G41" t="n">
-        <v>12.04000482585766</v>
-      </c>
-      <c r="H41" t="n">
-        <v>734.4402943773173</v>
-      </c>
-      <c r="I41" t="n">
-        <v>56.06414460895553</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Arthur Conan Doyle</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Hound of the Baskervilles </t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>44076</v>
-      </c>
-      <c r="E42" t="n">
-        <v>40</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.813013505356644</v>
-      </c>
-      <c r="G42" t="n">
-        <v>4.995047692017204</v>
-      </c>
-      <c r="H42" t="n">
-        <v>199.8019076806881</v>
-      </c>
-      <c r="I42" t="n">
-        <v>15.25205402142657</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Harriet Beecher Stowe</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uncle Tom's Cabin </t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>44088</v>
-      </c>
-      <c r="E43" t="n">
-        <v>72</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.55817907388744</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.041214586792546</v>
-      </c>
-      <c r="H43" t="n">
-        <v>146.9674502490633</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.21888933198957</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Kahlil Gibran</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Prophet </t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>44097</v>
-      </c>
-      <c r="E44" t="n">
-        <v>61</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.659038561520078</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.173340515591302</v>
-      </c>
-      <c r="H44" t="n">
-        <v>132.5737714510694</v>
-      </c>
-      <c r="I44" t="n">
-        <v>10.12013522527248</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Thomas Hobbes</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leviathan </t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="E45" t="n">
-        <v>70</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.609389773863237</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.10830060376084</v>
-      </c>
-      <c r="H45" t="n">
-        <v>147.5810422632588</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11.26572841704265</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Joseph Conrad</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heart of Darkness </t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>44088</v>
-      </c>
-      <c r="E46" t="n">
-        <v>68</v>
-      </c>
-      <c r="F46" t="n">
-        <v>9.665207711683228</v>
-      </c>
-      <c r="G46" t="n">
-        <v>12.66142210230503</v>
-      </c>
-      <c r="H46" t="n">
-        <v>860.9767029567421</v>
-      </c>
-      <c r="I46" t="n">
-        <v>65.72341243944607</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Alexandre Dumas</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Count of Monte Cristo, Illustrated </t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>44095</v>
-      </c>
-      <c r="E47" t="n">
-        <v>24</v>
-      </c>
-      <c r="F47" t="n">
-        <v>7.451692341713619</v>
-      </c>
-      <c r="G47" t="n">
-        <v>9.761716967644841</v>
-      </c>
-      <c r="H47" t="n">
-        <v>234.2812072234762</v>
-      </c>
-      <c r="I47" t="n">
-        <v>17.88406162011267</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Andrée Hope</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chronicles of an Old Inn </t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>44085</v>
-      </c>
-      <c r="E48" t="n">
-        <v>96</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6.034375100413754</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7.905031381542018</v>
-      </c>
-      <c r="H48" t="n">
-        <v>758.8830126280337</v>
-      </c>
-      <c r="I48" t="n">
-        <v>57.93000096397213</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pennsylvania Dutch Cooking </t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>44081</v>
-      </c>
-      <c r="E49" t="n">
-        <v>62</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5.692809360133452</v>
-      </c>
-      <c r="G49" t="n">
-        <v>7.457580261774823</v>
-      </c>
-      <c r="H49" t="n">
-        <v>462.369976230039</v>
-      </c>
-      <c r="I49" t="n">
-        <v>35.29541803282746</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>L. M. Montgomery</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne of Green Gables </t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>44120</v>
-      </c>
-      <c r="E50" t="n">
-        <v>40</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4.064266447839691</v>
-      </c>
-      <c r="G50" t="n">
-        <v>5.324189046669996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>212.9675618667999</v>
-      </c>
-      <c r="I50" t="n">
-        <v>16.2570657913588</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>D. W. Barefoot</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morley's Weapon </t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>44079</v>
-      </c>
-      <c r="E51" t="n">
-        <v>35</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2.853652535552079</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.738284821573224</v>
-      </c>
-      <c r="H51" t="n">
-        <v>130.8399687550628</v>
-      </c>
-      <c r="I51" t="n">
-        <v>9.987783874432267</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Antonio Pigafetta</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Philippine Islands, 1493-1898, Volume 33, 1519-1522 </t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>44125</v>
-      </c>
-      <c r="E52" t="n">
-        <v>92</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3.015142398151962</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3.94983654157907</v>
-      </c>
-      <c r="H52" t="n">
-        <v>363.3849618252745</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27.73931006299813</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>David P. Barrows</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A History of the Philippines </t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>44092</v>
-      </c>
-      <c r="E53" t="n">
-        <v>61</v>
-      </c>
-      <c r="F53" t="n">
-        <v>7.307352174579282</v>
-      </c>
-      <c r="G53" t="n">
-        <v>9.572631348698861</v>
-      </c>
-      <c r="H53" t="n">
-        <v>583.9305122706305</v>
-      </c>
-      <c r="I53" t="n">
-        <v>44.57484826493373</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>John U. Wolff</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A Dictionary of Cebuano Visayan </t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>44132</v>
-      </c>
-      <c r="E54" t="n">
-        <v>30</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3.01574982395332</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3.950632269378849</v>
-      </c>
-      <c r="H54" t="n">
-        <v>118.5189680813655</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9.047249471859971</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>C. J. Wedlake</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peril Orbit </t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>44092</v>
-      </c>
-      <c r="E55" t="n">
-        <v>88</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.103584001518164</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.445695041988795</v>
-      </c>
-      <c r="H55" t="n">
-        <v>127.221163695014</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9.711539213359856</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>L. Frank Baum</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Wonderful Wizard of Oz </t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>44102</v>
-      </c>
-      <c r="E56" t="n">
-        <v>66</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7.437719839383452</v>
-      </c>
-      <c r="G56" t="n">
-        <v>9.743412989592322</v>
-      </c>
-      <c r="H56" t="n">
-        <v>643.0652573130933</v>
-      </c>
-      <c r="I56" t="n">
-        <v>49.0889509399309</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>William Cathrall</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The History of Oswestry </t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>44129</v>
-      </c>
-      <c r="E57" t="n">
-        <v>48</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.957738620064409</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3.874637592284376</v>
-      </c>
-      <c r="H57" t="n">
-        <v>185.98260442965</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14.19714537630915</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Victor Hugo</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Misérables </t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>44125</v>
-      </c>
-      <c r="E58" t="n">
-        <v>99</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2.98669407025139</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3.912569232029321</v>
-      </c>
-      <c r="H58" t="n">
-        <v>387.3443539709028</v>
-      </c>
-      <c r="I58" t="n">
-        <v>29.56827129548878</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Ray Bradbury</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asleep in Armageddon </t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="E59" t="n">
-        <v>41</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6.775906763864698</v>
-      </c>
-      <c r="G59" t="n">
-        <v>8.876437860662755</v>
-      </c>
-      <c r="H59" t="n">
-        <v>363.9339522871729</v>
-      </c>
-      <c r="I59" t="n">
-        <v>27.78121773184529</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Fyodor Dostoyevsky</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Brothers Karamazov </t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>44083</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3.724181798160204</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4.878678155589868</v>
-      </c>
-      <c r="H60" t="n">
-        <v>29.27206893353921</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.234509078896128</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>J. H. Oswald Brown</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spectropia; or, Surprising Spectral Illusions </t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>44081</v>
-      </c>
-      <c r="E61" t="n">
-        <v>94</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7.139531592337086</v>
-      </c>
-      <c r="G61" t="n">
-        <v>9.352786385961583</v>
-      </c>
-      <c r="H61" t="n">
-        <v>879.1619202803888</v>
-      </c>
-      <c r="I61" t="n">
-        <v>67.11159696796869</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Stanley</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Surveying and Levelling Instruments, Theoretically and Practically Described. </t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
-        <v>9.776137817538096</v>
-      </c>
-      <c r="G62" t="n">
-        <v>12.80674054097491</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Emily Brontë</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wuthering Heights </t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>44120</v>
-      </c>
-      <c r="E63" t="n">
-        <v>48</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1.131452113930301</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.482202269248695</v>
-      </c>
-      <c r="H63" t="n">
-        <v>71.14570892393735</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.430970146865448</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Henry James</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Turn of the Screw </t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>44110</v>
-      </c>
-      <c r="E64" t="n">
-        <v>48</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5.847067578119493</v>
-      </c>
-      <c r="G64" t="n">
-        <v>7.659658527336536</v>
-      </c>
-      <c r="H64" t="n">
-        <v>367.6636093121537</v>
-      </c>
-      <c r="I64" t="n">
-        <v>28.06592437497358</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Alfred Coppel</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jinx Ship to the Rescue </t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>44077</v>
-      </c>
-      <c r="E65" t="n">
-        <v>42</v>
-      </c>
-      <c r="F65" t="n">
-        <v>7.461197892427045</v>
-      </c>
-      <c r="G65" t="n">
-        <v>9.774169239079429</v>
-      </c>
-      <c r="H65" t="n">
-        <v>410.515108041336</v>
-      </c>
-      <c r="I65" t="n">
-        <v>31.33703114819366</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Margaret St. Clair</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Garden of Evil </t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E66" t="n">
-        <v>14</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3.40308451570014</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4.458040715567184</v>
-      </c>
-      <c r="H66" t="n">
-        <v>62.41257001794057</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.764318321980198</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Ludwig Wittgenstein</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tractatus Logico-Philosophicus </t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>44111</v>
-      </c>
-      <c r="E67" t="n">
-        <v>52</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2.391261244148905</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3.132552229835065</v>
-      </c>
-      <c r="H67" t="n">
-        <v>162.8927159514234</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12.43455846957431</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Fyodor Dostoyevsky</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prestuplenie i nakazanie. English </t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="E68" t="n">
-        <v>100</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2.007916960245257</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2.630371217921287</v>
-      </c>
-      <c r="H68" t="n">
-        <v>263.0371217921287</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20.07916960245257</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Washington Irving</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Legend of Sleepy Hollow </t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>44077</v>
-      </c>
-      <c r="E69" t="n">
-        <v>91</v>
-      </c>
-      <c r="F69" t="n">
-        <v>9.014850642196237</v>
-      </c>
-      <c r="G69" t="n">
-        <v>11.80945434127707</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1074.660345056213</v>
-      </c>
-      <c r="I69" t="n">
-        <v>82.0351408439858</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Charles Dickens</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Copperfield </t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>44088</v>
-      </c>
-      <c r="E70" t="n">
-        <v>53</v>
-      </c>
-      <c r="F70" t="n">
-        <v>4.51165019210343</v>
-      </c>
-      <c r="G70" t="n">
-        <v>5.910261751655494</v>
-      </c>
-      <c r="H70" t="n">
-        <v>313.2438728377412</v>
-      </c>
-      <c r="I70" t="n">
-        <v>23.91174601814822</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>H. G. Wells</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The War of the Worlds </t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>44121</v>
-      </c>
-      <c r="E71" t="n">
-        <v>53</v>
-      </c>
-      <c r="F71" t="n">
-        <v>6.287236989987731</v>
-      </c>
-      <c r="G71" t="n">
-        <v>8.236280456883929</v>
-      </c>
-      <c r="H71" t="n">
-        <v>436.5228642148482</v>
-      </c>
-      <c r="I71" t="n">
-        <v>33.322356046935</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>William Beattie</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The castles and abbeys of England; Vol. 2 of 2 </t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E72" t="n">
-        <v>31</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1.21585693637547</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.592772586651866</v>
-      </c>
-      <c r="H72" t="n">
-        <v>49.37595018620784</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.769156502763963</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Jack London</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Call of the Wild </t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>44123</v>
-      </c>
-      <c r="E73" t="n">
-        <v>73</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3.414860951466943</v>
-      </c>
-      <c r="G73" t="n">
-        <v>4.473467846421695</v>
-      </c>
-      <c r="H73" t="n">
-        <v>326.5631527887837</v>
-      </c>
-      <c r="I73" t="n">
-        <v>24.9284849457087</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Miguel de Cervantes Saavedra</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Don Quixote </t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>44086</v>
-      </c>
-      <c r="E74" t="n">
-        <v>82</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.7540915872655884</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.9878599793179209</v>
-      </c>
-      <c r="H74" t="n">
-        <v>81.00451830406952</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6.183551015577834</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Bernard Shaw</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pygmalion </t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>44090</v>
-      </c>
-      <c r="E75" t="n">
-        <v>84</v>
-      </c>
-      <c r="F75" t="n">
-        <v>6.332895429483235</v>
-      </c>
-      <c r="G75" t="n">
-        <v>8.296093012623039</v>
-      </c>
-      <c r="H75" t="n">
-        <v>696.8718130603353</v>
-      </c>
-      <c r="I75" t="n">
-        <v>53.19632160765934</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>John Aubrey</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Natural History of Wiltshire </t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>44095</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="n">
-        <v>9.891096174614626</v>
-      </c>
-      <c r="G76" t="n">
-        <v>12.95733598874516</v>
-      </c>
-      <c r="H76" t="n">
-        <v>12.95733598874516</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.9891096174614642</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>W.V. Athanas</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Madcap Metalloids </t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="E77" t="n">
-        <v>91</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9.727727666198824</v>
-      </c>
-      <c r="G77" t="n">
-        <v>12.74332324272046</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1159.642415087562</v>
-      </c>
-      <c r="I77" t="n">
-        <v>88.52232176240932</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Hermann Hesse</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Siddhartha </t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>44132</v>
-      </c>
-      <c r="E78" t="n">
-        <v>39</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1.407201818847091</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.84343438268969</v>
-      </c>
-      <c r="H78" t="n">
-        <v>71.8939409248979</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.488087093503665</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Friedrich Wilhelm Nietzsche</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beyond Good and Evil </t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>44104</v>
-      </c>
-      <c r="E79" t="n">
-        <v>19</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9.0532131205113</v>
-      </c>
-      <c r="G79" t="n">
-        <v>11.8597091878698</v>
-      </c>
-      <c r="H79" t="n">
-        <v>225.3344745695263</v>
-      </c>
-      <c r="I79" t="n">
-        <v>17.20110492897149</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Arthur Conan Doyle</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A Study in Scarlet </t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>44111</v>
-      </c>
-      <c r="E80" t="n">
-        <v>73</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2.830800951669011</v>
-      </c>
-      <c r="G80" t="n">
-        <v>3.708349246686405</v>
-      </c>
-      <c r="H80" t="n">
-        <v>270.7094950081075</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20.66484694718378</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Edgar Allan Poe</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Masque of the Red Death </t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
-      <c r="F81" t="n">
-        <v>5.81222779375704</v>
-      </c>
-      <c r="G81" t="n">
-        <v>7.614018409821722</v>
-      </c>
-      <c r="H81" t="n">
-        <v>30.45607363928689</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.324891117502816</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Voltaire</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Candide </t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>44108</v>
-      </c>
-      <c r="E82" t="n">
-        <v>61</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2.997846863207374</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3.92717939080166</v>
-      </c>
-      <c r="H82" t="n">
-        <v>239.5579428389013</v>
-      </c>
-      <c r="I82" t="n">
-        <v>18.28686586556498</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Daniel Defoe</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A Journal of the Plague Year </t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>44128</v>
-      </c>
-      <c r="E83" t="n">
-        <v>9</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9.109663898577061</v>
-      </c>
-      <c r="G83" t="n">
-        <v>11.93365970713595</v>
-      </c>
-      <c r="H83" t="n">
-        <v>107.4029373642235</v>
-      </c>
-      <c r="I83" t="n">
-        <v>8.198697508719363</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Upton Sinclair</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Jungle </t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="E84" t="n">
-        <v>45</v>
-      </c>
-      <c r="F84" t="n">
-        <v>6.996779940882228</v>
-      </c>
-      <c r="G84" t="n">
-        <v>9.165781722555719</v>
-      </c>
-      <c r="H84" t="n">
-        <v>412.4601775150074</v>
-      </c>
-      <c r="I84" t="n">
-        <v>31.4855097339701</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Frances Hodgson Burnett</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Secret Garden </t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>44083</v>
-      </c>
-      <c r="E85" t="n">
-        <v>43</v>
-      </c>
-      <c r="F85" t="n">
-        <v>4.65062049238104</v>
-      </c>
-      <c r="G85" t="n">
-        <v>6.092312845019163</v>
-      </c>
-      <c r="H85" t="n">
-        <v>261.969452335824</v>
-      </c>
-      <c r="I85" t="n">
-        <v>19.99766811723845</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>William J. Brittain</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Burnt Planet </t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>44084</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3.248022543873005</v>
-      </c>
-      <c r="G86" t="n">
-        <v>4.254909532473636</v>
-      </c>
-      <c r="H86" t="n">
-        <v>34.03927625978909</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.598418035098401</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Rudyard Kipling</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Jungle Book </t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>44093</v>
-      </c>
-      <c r="E87" t="n">
-        <v>51</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1.683210805710946</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2.20500615548134</v>
-      </c>
-      <c r="H87" t="n">
-        <v>112.4553139295483</v>
-      </c>
-      <c r="I87" t="n">
-        <v>8.584375109125844</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Homer</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Odyssey </t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>44081</v>
-      </c>
-      <c r="E88" t="n">
-        <v>17</v>
-      </c>
-      <c r="F88" t="n">
-        <v>3.104338770052462</v>
-      </c>
-      <c r="G88" t="n">
-        <v>4.066683788768725</v>
-      </c>
-      <c r="H88" t="n">
-        <v>69.13362440906833</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.277375909089194</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>graf Leo Tolstoy</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anna Karenina </t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>44118</v>
-      </c>
-      <c r="E89" t="n">
-        <v>19</v>
-      </c>
-      <c r="F89" t="n">
-        <v>7.572277344371817</v>
-      </c>
-      <c r="G89" t="n">
-        <v>9.919683321127081</v>
-      </c>
-      <c r="H89" t="n">
-        <v>188.4739831014145</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14.3873269543065</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Dante Alighieri</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Divine Comedy, Longfellow's Translation, Hell </t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>44127</v>
-      </c>
-      <c r="E90" t="n">
-        <v>16</v>
-      </c>
-      <c r="F90" t="n">
-        <v>8.381653671144427</v>
-      </c>
-      <c r="G90" t="n">
-        <v>10.9799663091992</v>
-      </c>
-      <c r="H90" t="n">
-        <v>175.6794609471872</v>
-      </c>
-      <c r="I90" t="n">
-        <v>13.4106458738311</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Jonathan Swift</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gulliver's Travels into Several Remote Nations of the World </t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>5.985601195071611</v>
-      </c>
-      <c r="G91" t="n">
-        <v>7.841137565543811</v>
-      </c>
-      <c r="H91" t="n">
-        <v>15.68227513108762</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.197120239014323</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Charles Dickens</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oliver Twist </t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>44128</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1.660851658657804</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.175715672841723</v>
-      </c>
-      <c r="H92" t="n">
-        <v>15.23000970989206</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.162596161060465</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Martin A. S. Hume</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Queens of old Spain </t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2.22545513623472</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2.915346228467483</v>
-      </c>
-      <c r="H93" t="n">
-        <v>17.4920773708049</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.33527308174083</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Daniel Defoe</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Life and Adventures of Robinson Crusoe </t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>44104</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5.239994714522227</v>
-      </c>
-      <c r="G94" t="n">
-        <v>6.864393076024118</v>
-      </c>
-      <c r="H94" t="n">
-        <v>41.18635845614471</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.143996828713341</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graham's Magazine, Vol. XVIII, No. 6, June 1841 </t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="n">
-        <v>2.021288383814327</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2.647887782796769</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Herself by Harriet A. Jacobs</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incidents in the Life of a Slave Girl, Written </t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>44130</v>
-      </c>
-      <c r="E96" t="n">
-        <v>26</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3.83988941214463</v>
-      </c>
-      <c r="G96" t="n">
-        <v>5.030255129909466</v>
-      </c>
-      <c r="H96" t="n">
-        <v>130.7866333776461</v>
-      </c>
-      <c r="I96" t="n">
-        <v>9.983712471576041</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Equiano</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Interesting Narrative of the Life of Olaudah Equiano, Or Gustavus Vassa, The African </t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>44091</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>4.965746194166297</v>
-      </c>
-      <c r="G97" t="n">
-        <v>6.505127514357849</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Jerome K. Jerome</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Three Men in a Boat (To Say Nothing of the Dog) </t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>44091</v>
-      </c>
-      <c r="E98" t="n">
-        <v>79</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6.89619906184212</v>
-      </c>
-      <c r="G98" t="n">
-        <v>9.034020771013177</v>
-      </c>
-      <c r="H98" t="n">
-        <v>713.687640910041</v>
-      </c>
-      <c r="I98" t="n">
-        <v>54.47997258855276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -7450,7 +7450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7467,22 +7467,498 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44111</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44111</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44111</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>44111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>19   2020-10-07
+31   2020-10-07
+65   2020-10-07
+78   2020-10-07
+Name: Datums, dtype: datetime64[ns]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6931,1037 +6929,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A98"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Datums</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44094</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44116</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44082</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44089</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44076</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44097</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44085</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44110</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>44093</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>44118</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A99"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Datums</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44122</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44094</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44116</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44082</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44089</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44076</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44097</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44085</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44110</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>44093</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>44118</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>19   2020-10-07
-31   2020-10-07
-65   2020-10-07
-78   2020-10-07
-Name: Datums, dtype: datetime64[ns]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6929,4 +6931,713 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Datums</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44133</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44097</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44096</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr.p.k.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Autors</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nosaukums</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Datums</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Skaits</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pašizmaksa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Kopā</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Peļņa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mark Twain</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adventures of Huckleberry Finn </t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E2" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.9013403143194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.97075581175841</v>
+      </c>
+      <c r="H2" t="n">
+        <v>946.8651742583642</v>
+      </c>
+      <c r="I2" t="n">
+        <v>72.27978429453151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>J. M. Barrie</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter Pan </t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.809470410888117</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.54040623826343</v>
+      </c>
+      <c r="H3" t="n">
+        <v>230.8081247652687</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.61894082177628</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ludwig Wittgenstein</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tractatus Logico-Philosophicus </t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.391261244148905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.132552229835065</v>
+      </c>
+      <c r="H4" t="n">
+        <v>162.8927159514234</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.43455846957431</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arthur Conan Doyle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Study in Scarlet </t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.830800951669011</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.708349246686405</v>
+      </c>
+      <c r="H5" t="n">
+        <v>270.7094950081075</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.66484694718378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -7450,7 +7450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7637,6 +7637,19 @@
         <v>20.66484694718378</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>218</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rezult.xlsx
+++ b/rezult.xlsx
@@ -6939,7 +6939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6953,490 +6953,378 @@
           <t>Datums</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Skaits</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44086</v>
+        <v>44076</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44133</v>
+        <v>44077</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44095</v>
+        <v>44078</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44121</v>
+        <v>44079</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44132</v>
+        <v>44081</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44117</v>
+        <v>44082</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44100</v>
+        <v>44083</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44127</v>
+        <v>44084</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44133</v>
+        <v>44085</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44120</v>
+        <v>44086</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44122</v>
+        <v>44088</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44094</v>
+        <v>44089</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44128</v>
+        <v>44090</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44081</v>
+        <v>44091</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44126</v>
+        <v>44092</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44129</v>
+        <v>44093</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44133</v>
+        <v>44094</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44116</v>
+        <v>44095</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44108</v>
+        <v>44096</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44111</v>
+        <v>44097</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44086</v>
+        <v>44100</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44132</v>
+        <v>44102</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44096</v>
+        <v>44103</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44083</v>
+        <v>44104</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44109</v>
+        <v>44105</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44082</v>
+        <v>44108</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44090</v>
+        <v>44109</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44124</v>
+        <v>44110</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44078</v>
+        <v>44111</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44091</v>
+        <v>44112</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44123</v>
+        <v>44116</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44111</v>
+        <v>44117</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44126</v>
+        <v>44118</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44128</v>
+        <v>44120</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44096</v>
+        <v>44121</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44133</v>
+        <v>44122</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44105</v>
+        <v>44123</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44089</v>
+        <v>44124</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44090</v>
+        <v>44125</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>44126</v>
       </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44076</v>
+        <v>44127</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44088</v>
+        <v>44128</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44097</v>
+        <v>44129</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44112</v>
+        <v>44130</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44088</v>
+        <v>44132</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44085</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44102</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44120</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44110</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44088</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44086</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44095</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>44093</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>44081</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>44118</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>44096</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>44112</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>44091</v>
+        <v>44133</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
